--- a/app/database/seeds/seed_files/masterfile2.xlsx
+++ b/app/database/seeds/seed_files/masterfile2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="activity_type" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10170" uniqueCount="2005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10190" uniqueCount="2008">
   <si>
     <t>activity_type_code</t>
   </si>
@@ -6036,6 +6036,15 @@
   </si>
   <si>
     <t>REXONA DEO LTN QUANTUM MP 120X3X3ML</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>tts</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -6434,10 +6443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6447,7 +6456,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6457,8 +6466,14 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6468,8 +6483,11 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6479,8 +6497,11 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6490,8 +6511,11 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6501,8 +6525,11 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6512,8 +6539,11 @@
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6523,8 +6553,11 @@
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6534,8 +6567,11 @@
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6545,8 +6581,11 @@
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6556,8 +6595,11 @@
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6567,8 +6609,11 @@
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6578,8 +6623,11 @@
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6589,8 +6637,11 @@
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6600,8 +6651,11 @@
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6611,8 +6665,11 @@
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6622,8 +6679,11 @@
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6633,8 +6693,11 @@
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6644,8 +6707,11 @@
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6654,6 +6720,9 @@
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2007</v>
       </c>
     </row>
   </sheetData>
@@ -21532,7 +21601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+    <sheetView topLeftCell="A348" workbookViewId="0">
       <selection activeCell="A360" sqref="A360:XFD360"/>
     </sheetView>
   </sheetViews>

--- a/app/database/seeds/seed_files/masterfile2.xlsx
+++ b/app/database/seeds/seed_files/masterfile2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="activity_type" sheetId="1" r:id="rId1"/>
@@ -21316,15 +21316,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L835"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C166" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" bestFit="1" customWidth="1"/>
@@ -21344,7 +21344,7 @@
       <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -21382,7 +21382,7 @@
       <c r="B2" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -21420,7 +21420,7 @@
       <c r="B3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -21458,7 +21458,7 @@
       <c r="B4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -21496,7 +21496,7 @@
       <c r="B5" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -21534,7 +21534,7 @@
       <c r="B6" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -21572,7 +21572,7 @@
       <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -21610,7 +21610,7 @@
       <c r="B8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -21648,7 +21648,7 @@
       <c r="B9" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -21686,7 +21686,7 @@
       <c r="B10" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -21724,7 +21724,7 @@
       <c r="B11" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -21762,7 +21762,7 @@
       <c r="B12" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -21800,7 +21800,7 @@
       <c r="B13" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -21838,7 +21838,7 @@
       <c r="B14" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -21876,7 +21876,7 @@
       <c r="B15" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -21914,7 +21914,7 @@
       <c r="B16" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -21952,7 +21952,7 @@
       <c r="B17" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -21990,7 +21990,7 @@
       <c r="B18" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -22028,7 +22028,7 @@
       <c r="B19" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -22066,7 +22066,7 @@
       <c r="B20" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -22104,7 +22104,7 @@
       <c r="B21" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -22142,7 +22142,7 @@
       <c r="B22" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -22180,7 +22180,7 @@
       <c r="B23" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -22218,7 +22218,7 @@
       <c r="B24" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -22256,7 +22256,7 @@
       <c r="B25" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -22294,7 +22294,7 @@
       <c r="B26" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -22332,7 +22332,7 @@
       <c r="B27" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -22370,7 +22370,7 @@
       <c r="B28" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -22408,7 +22408,7 @@
       <c r="B29" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -22446,7 +22446,7 @@
       <c r="B30" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -22484,7 +22484,7 @@
       <c r="B31" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -22522,7 +22522,7 @@
       <c r="B32" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -22560,7 +22560,7 @@
       <c r="B33" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -22598,7 +22598,7 @@
       <c r="B34" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -22636,7 +22636,7 @@
       <c r="B35" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -22674,7 +22674,7 @@
       <c r="B36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -22712,7 +22712,7 @@
       <c r="B37" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -22750,7 +22750,7 @@
       <c r="B38" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -22788,7 +22788,7 @@
       <c r="B39" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -22826,7 +22826,7 @@
       <c r="B40" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -22864,7 +22864,7 @@
       <c r="B41" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -22902,7 +22902,7 @@
       <c r="B42" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -22940,7 +22940,7 @@
       <c r="B43" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -22978,7 +22978,7 @@
       <c r="B44" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -23016,7 +23016,7 @@
       <c r="B45" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -23054,7 +23054,7 @@
       <c r="B46" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -23092,7 +23092,7 @@
       <c r="B47" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -23130,7 +23130,7 @@
       <c r="B48" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -23168,7 +23168,7 @@
       <c r="B49" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -23206,7 +23206,7 @@
       <c r="B50" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -23244,7 +23244,7 @@
       <c r="B51" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -23282,7 +23282,7 @@
       <c r="B52" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -23320,7 +23320,7 @@
       <c r="B53" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -23358,7 +23358,7 @@
       <c r="B54" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -23396,7 +23396,7 @@
       <c r="B55" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -23434,7 +23434,7 @@
       <c r="B56" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -23472,7 +23472,7 @@
       <c r="B57" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -23510,7 +23510,7 @@
       <c r="B58" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -23548,7 +23548,7 @@
       <c r="B59" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -23586,7 +23586,7 @@
       <c r="B60" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -23624,7 +23624,7 @@
       <c r="B61" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -23662,7 +23662,7 @@
       <c r="B62" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -23700,7 +23700,7 @@
       <c r="B63" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -23738,7 +23738,7 @@
       <c r="B64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -23776,7 +23776,7 @@
       <c r="B65" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -23814,7 +23814,7 @@
       <c r="B66" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -23852,7 +23852,7 @@
       <c r="B67" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -23890,7 +23890,7 @@
       <c r="B68" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -23928,7 +23928,7 @@
       <c r="B69" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -23966,7 +23966,7 @@
       <c r="B70" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -24004,7 +24004,7 @@
       <c r="B71" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -24042,7 +24042,7 @@
       <c r="B72" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -24080,7 +24080,7 @@
       <c r="B73" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -24118,7 +24118,7 @@
       <c r="B74" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -24156,7 +24156,7 @@
       <c r="B75" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -24194,7 +24194,7 @@
       <c r="B76" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -24232,7 +24232,7 @@
       <c r="B77" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -24270,7 +24270,7 @@
       <c r="B78" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -24308,7 +24308,7 @@
       <c r="B79" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -24346,7 +24346,7 @@
       <c r="B80" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -24384,7 +24384,7 @@
       <c r="B81" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -24422,7 +24422,7 @@
       <c r="B82" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -24460,7 +24460,7 @@
       <c r="B83" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="4" t="s">
@@ -24498,7 +24498,7 @@
       <c r="B84" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="4" t="s">
@@ -24536,7 +24536,7 @@
       <c r="B85" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -24574,7 +24574,7 @@
       <c r="B86" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="4" t="s">
@@ -24612,7 +24612,7 @@
       <c r="B87" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -24650,7 +24650,7 @@
       <c r="B88" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -24688,7 +24688,7 @@
       <c r="B89" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -24726,7 +24726,7 @@
       <c r="B90" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="4" t="s">
@@ -24764,7 +24764,7 @@
       <c r="B91" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="4" t="s">
@@ -24802,7 +24802,7 @@
       <c r="B92" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -24840,7 +24840,7 @@
       <c r="B93" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -24878,7 +24878,7 @@
       <c r="B94" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -24916,7 +24916,7 @@
       <c r="B95" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="4" t="s">
@@ -24954,7 +24954,7 @@
       <c r="B96" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="4" t="s">
@@ -24992,7 +24992,7 @@
       <c r="B97" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -25030,7 +25030,7 @@
       <c r="B98" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -25068,7 +25068,7 @@
       <c r="B99" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -25106,7 +25106,7 @@
       <c r="B100" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -25144,7 +25144,7 @@
       <c r="B101" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -25182,7 +25182,7 @@
       <c r="B102" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -25220,7 +25220,7 @@
       <c r="B103" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="4" t="s">
@@ -25258,7 +25258,7 @@
       <c r="B104" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -25296,7 +25296,7 @@
       <c r="B105" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -25334,7 +25334,7 @@
       <c r="B106" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="4" t="s">
@@ -25372,7 +25372,7 @@
       <c r="B107" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -25410,7 +25410,7 @@
       <c r="B108" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="4" t="s">
@@ -25448,7 +25448,7 @@
       <c r="B109" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -25486,7 +25486,7 @@
       <c r="B110" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="4" t="s">
@@ -25524,7 +25524,7 @@
       <c r="B111" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -25562,7 +25562,7 @@
       <c r="B112" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="4" t="s">
@@ -25600,7 +25600,7 @@
       <c r="B113" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -25638,7 +25638,7 @@
       <c r="B114" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="4" t="s">
@@ -25676,7 +25676,7 @@
       <c r="B115" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="4" t="s">
@@ -25714,7 +25714,7 @@
       <c r="B116" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="4" t="s">
@@ -25752,7 +25752,7 @@
       <c r="B117" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -25790,7 +25790,7 @@
       <c r="B118" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="4" t="s">
@@ -25828,7 +25828,7 @@
       <c r="B119" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="4" t="s">
@@ -25866,7 +25866,7 @@
       <c r="B120" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="4" t="s">
@@ -25904,7 +25904,7 @@
       <c r="B121" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -25942,7 +25942,7 @@
       <c r="B122" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -25980,7 +25980,7 @@
       <c r="B123" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="4" t="s">
@@ -26018,7 +26018,7 @@
       <c r="B124" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="4" t="s">
@@ -26056,7 +26056,7 @@
       <c r="B125" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -26094,7 +26094,7 @@
       <c r="B126" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="4" t="s">
@@ -26132,7 +26132,7 @@
       <c r="B127" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -26170,7 +26170,7 @@
       <c r="B128" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -26208,7 +26208,7 @@
       <c r="B129" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -26246,7 +26246,7 @@
       <c r="B130" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="4" t="s">
@@ -26284,7 +26284,7 @@
       <c r="B131" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="4" t="s">
@@ -26322,7 +26322,7 @@
       <c r="B132" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -26360,7 +26360,7 @@
       <c r="B133" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -26398,7 +26398,7 @@
       <c r="B134" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="4" t="s">
@@ -26436,7 +26436,7 @@
       <c r="B135" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="4" t="s">
@@ -26474,7 +26474,7 @@
       <c r="B136" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="4" t="s">
@@ -26512,7 +26512,7 @@
       <c r="B137" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="4" t="s">
@@ -26550,7 +26550,7 @@
       <c r="B138" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="4" t="s">
@@ -26588,7 +26588,7 @@
       <c r="B139" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="4" t="s">
@@ -26626,7 +26626,7 @@
       <c r="B140" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="4" t="s">
@@ -26664,7 +26664,7 @@
       <c r="B141" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="4" t="s">
@@ -26702,7 +26702,7 @@
       <c r="B142" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="4" t="s">
@@ -26740,7 +26740,7 @@
       <c r="B143" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="4" t="s">
@@ -26778,7 +26778,7 @@
       <c r="B144" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="4" t="s">
@@ -26816,7 +26816,7 @@
       <c r="B145" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="4" t="s">
@@ -26854,7 +26854,7 @@
       <c r="B146" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="4" t="s">
@@ -26892,7 +26892,7 @@
       <c r="B147" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="4" t="s">
@@ -26930,7 +26930,7 @@
       <c r="B148" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="4" t="s">
@@ -26968,7 +26968,7 @@
       <c r="B149" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D149" s="4" t="s">
@@ -27006,7 +27006,7 @@
       <c r="B150" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="4" t="s">
@@ -27044,7 +27044,7 @@
       <c r="B151" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="4" t="s">
@@ -27082,7 +27082,7 @@
       <c r="B152" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="4" t="s">
@@ -27120,7 +27120,7 @@
       <c r="B153" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="4" t="s">
@@ -27158,7 +27158,7 @@
       <c r="B154" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="4" t="s">
@@ -27196,7 +27196,7 @@
       <c r="B155" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="4" t="s">
@@ -27234,7 +27234,7 @@
       <c r="B156" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="4" t="s">
@@ -27272,7 +27272,7 @@
       <c r="B157" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -27310,7 +27310,7 @@
       <c r="B158" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D158" s="4" t="s">
@@ -27348,7 +27348,7 @@
       <c r="B159" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="4" t="s">
@@ -27386,7 +27386,7 @@
       <c r="B160" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="4" t="s">
@@ -27424,7 +27424,7 @@
       <c r="B161" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="4" t="s">
@@ -27462,7 +27462,7 @@
       <c r="B162" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="4" t="s">
@@ -27500,7 +27500,7 @@
       <c r="B163" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="4" t="s">
@@ -27538,7 +27538,7 @@
       <c r="B164" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="4" t="s">
@@ -27576,7 +27576,7 @@
       <c r="B165" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="4" t="s">
@@ -27614,7 +27614,7 @@
       <c r="B166" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="4" t="s">
@@ -27652,7 +27652,7 @@
       <c r="B167" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="4" t="s">
@@ -27690,7 +27690,7 @@
       <c r="B168" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="4" t="s">
@@ -27728,7 +27728,7 @@
       <c r="B169" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="4" t="s">
@@ -27766,7 +27766,7 @@
       <c r="B170" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="4" t="s">
@@ -27804,7 +27804,7 @@
       <c r="B171" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="4" t="s">
@@ -27842,7 +27842,7 @@
       <c r="B172" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="4" t="s">
@@ -27880,7 +27880,7 @@
       <c r="B173" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="4" t="s">
@@ -27918,7 +27918,7 @@
       <c r="B174" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="4" t="s">
@@ -27956,7 +27956,7 @@
       <c r="B175" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="4" t="s">
@@ -27994,7 +27994,7 @@
       <c r="B176" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="4" t="s">
@@ -28032,7 +28032,7 @@
       <c r="B177" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="4" t="s">
@@ -28070,6 +28070,9 @@
       <c r="B178" s="3" t="s">
         <v>642</v>
       </c>
+      <c r="C178" s="7">
+        <v>4</v>
+      </c>
       <c r="D178" s="4" t="s">
         <v>10</v>
       </c>
@@ -28101,7 +28104,7 @@
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="C179" s="6"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -28115,7 +28118,7 @@
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="C180" s="6"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -28129,7 +28132,7 @@
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="C181" s="6"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -28143,7 +28146,7 @@
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="C182" s="6"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -28157,7 +28160,7 @@
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="C183" s="6"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -28171,7 +28174,7 @@
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="C184" s="6"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -28185,7 +28188,7 @@
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="C185" s="6"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -28199,7 +28202,7 @@
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+      <c r="C186" s="6"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -28213,7 +28216,7 @@
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="C187" s="6"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -28227,7 +28230,7 @@
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
+      <c r="C188" s="6"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -28241,7 +28244,7 @@
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+      <c r="C189" s="6"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -28255,7 +28258,7 @@
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+      <c r="C190" s="6"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -28269,7 +28272,7 @@
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+      <c r="C191" s="6"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -28283,7 +28286,7 @@
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
+      <c r="C192" s="6"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -28297,7 +28300,7 @@
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="C193" s="6"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -28311,7 +28314,7 @@
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+      <c r="C194" s="6"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -28325,7 +28328,7 @@
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
+      <c r="C195" s="6"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -28339,7 +28342,7 @@
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
+      <c r="C196" s="6"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -28353,7 +28356,7 @@
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
+      <c r="C197" s="6"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -28367,7 +28370,7 @@
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
+      <c r="C198" s="6"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -28381,7 +28384,7 @@
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
+      <c r="C199" s="6"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -28395,7 +28398,7 @@
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
+      <c r="C200" s="6"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -28409,7 +28412,7 @@
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
+      <c r="C201" s="6"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -28423,7 +28426,7 @@
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
+      <c r="C202" s="6"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -28437,7 +28440,7 @@
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
+      <c r="C203" s="6"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -28451,7 +28454,7 @@
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
+      <c r="C204" s="6"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -28465,7 +28468,7 @@
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
+      <c r="C205" s="6"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -28479,7 +28482,7 @@
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
+      <c r="C206" s="6"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -28493,7 +28496,7 @@
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
+      <c r="C207" s="6"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
@@ -28507,7 +28510,7 @@
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
+      <c r="C208" s="6"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -28521,7 +28524,7 @@
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
+      <c r="C209" s="6"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
@@ -28535,7 +28538,7 @@
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
+      <c r="C210" s="6"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -28549,7 +28552,7 @@
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
+      <c r="C211" s="6"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -28563,7 +28566,7 @@
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
+      <c r="C212" s="6"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -28577,7 +28580,7 @@
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
+      <c r="C213" s="6"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -28591,7 +28594,7 @@
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
+      <c r="C214" s="6"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -28605,7 +28608,7 @@
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
+      <c r="C215" s="6"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -28619,7 +28622,7 @@
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
+      <c r="C216" s="6"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -28633,7 +28636,7 @@
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
+      <c r="C217" s="6"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -28647,7 +28650,7 @@
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
+      <c r="C218" s="6"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
@@ -28661,7 +28664,7 @@
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
+      <c r="C219" s="6"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
@@ -28675,7 +28678,7 @@
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
+      <c r="C220" s="6"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
@@ -28689,7 +28692,7 @@
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
+      <c r="C221" s="6"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -28703,7 +28706,7 @@
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+      <c r="C222" s="6"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
@@ -28717,7 +28720,7 @@
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+      <c r="C223" s="6"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
@@ -28731,7 +28734,7 @@
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+      <c r="C224" s="6"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
@@ -28745,7 +28748,7 @@
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+      <c r="C225" s="6"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
@@ -28759,7 +28762,7 @@
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+      <c r="C226" s="6"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
@@ -28773,7 +28776,7 @@
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
+      <c r="C227" s="6"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
@@ -28787,7 +28790,7 @@
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
+      <c r="C228" s="6"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
@@ -28801,7 +28804,7 @@
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
+      <c r="C229" s="6"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
@@ -28815,7 +28818,7 @@
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
+      <c r="C230" s="6"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
@@ -28829,7 +28832,7 @@
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
+      <c r="C231" s="6"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
@@ -28843,7 +28846,7 @@
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
+      <c r="C232" s="6"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
@@ -28857,7 +28860,7 @@
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
+      <c r="C233" s="6"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
@@ -28871,7 +28874,7 @@
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
+      <c r="C234" s="6"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
@@ -28885,7 +28888,7 @@
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
+      <c r="C235" s="6"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
@@ -28899,7 +28902,7 @@
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
+      <c r="C236" s="6"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
@@ -28913,7 +28916,7 @@
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
+      <c r="C237" s="6"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
@@ -28927,7 +28930,7 @@
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
+      <c r="C238" s="6"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
@@ -28941,7 +28944,7 @@
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
+      <c r="C239" s="6"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
@@ -28955,7 +28958,7 @@
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
+      <c r="C240" s="6"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
@@ -28969,7 +28972,7 @@
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
+      <c r="C241" s="6"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
@@ -28983,7 +28986,7 @@
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
+      <c r="C242" s="6"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
@@ -28997,7 +29000,7 @@
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
+      <c r="C243" s="6"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
@@ -29011,7 +29014,7 @@
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
+      <c r="C244" s="6"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
@@ -29025,7 +29028,7 @@
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
+      <c r="C245" s="6"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
@@ -29039,7 +29042,7 @@
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
+      <c r="C246" s="6"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
@@ -29053,7 +29056,7 @@
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
+      <c r="C247" s="6"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
@@ -29067,7 +29070,7 @@
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
+      <c r="C248" s="6"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
@@ -29081,7 +29084,7 @@
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
+      <c r="C249" s="6"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
@@ -29095,7 +29098,7 @@
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
+      <c r="C250" s="6"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -29109,7 +29112,7 @@
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
+      <c r="C251" s="6"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
@@ -29123,7 +29126,7 @@
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
+      <c r="C252" s="6"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
@@ -29137,7 +29140,7 @@
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
+      <c r="C253" s="6"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
@@ -29151,7 +29154,7 @@
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
+      <c r="C254" s="6"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
@@ -29165,7 +29168,7 @@
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
+      <c r="C255" s="6"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
@@ -29179,7 +29182,7 @@
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
+      <c r="C256" s="6"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
@@ -29193,7 +29196,7 @@
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
+      <c r="C257" s="6"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
@@ -29207,7 +29210,7 @@
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
+      <c r="C258" s="6"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
@@ -29221,7 +29224,7 @@
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
+      <c r="C259" s="6"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
@@ -29235,7 +29238,7 @@
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
+      <c r="C260" s="6"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
@@ -29249,7 +29252,7 @@
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
+      <c r="C261" s="6"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
@@ -29263,7 +29266,7 @@
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
+      <c r="C262" s="6"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
@@ -29277,7 +29280,7 @@
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
+      <c r="C263" s="6"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
@@ -29291,7 +29294,7 @@
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
+      <c r="C264" s="6"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
@@ -29305,7 +29308,7 @@
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
+      <c r="C265" s="6"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
@@ -29319,7 +29322,7 @@
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
+      <c r="C266" s="6"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
@@ -29333,7 +29336,7 @@
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
+      <c r="C267" s="6"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
@@ -29347,7 +29350,7 @@
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
+      <c r="C268" s="6"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
@@ -29361,7 +29364,7 @@
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
+      <c r="C269" s="6"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
@@ -29375,7 +29378,7 @@
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
+      <c r="C270" s="6"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
@@ -29389,7 +29392,7 @@
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
+      <c r="C271" s="6"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
@@ -29403,7 +29406,7 @@
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
+      <c r="C272" s="6"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
@@ -29417,7 +29420,7 @@
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
+      <c r="C273" s="6"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
@@ -29431,7 +29434,7 @@
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
+      <c r="C274" s="6"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
@@ -29445,7 +29448,7 @@
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
+      <c r="C275" s="6"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
@@ -29459,7 +29462,7 @@
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
+      <c r="C276" s="6"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
@@ -29473,7 +29476,7 @@
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
+      <c r="C277" s="6"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
@@ -29487,7 +29490,7 @@
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
+      <c r="C278" s="6"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
@@ -29501,7 +29504,7 @@
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
+      <c r="C279" s="6"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
@@ -29515,7 +29518,7 @@
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
+      <c r="C280" s="6"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
@@ -29529,7 +29532,7 @@
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
+      <c r="C281" s="6"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
@@ -29543,7 +29546,7 @@
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
+      <c r="C282" s="6"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
@@ -29557,7 +29560,7 @@
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
+      <c r="C283" s="6"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
@@ -29571,7 +29574,7 @@
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
+      <c r="C284" s="6"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
@@ -29585,7 +29588,7 @@
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
+      <c r="C285" s="6"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
@@ -29599,7 +29602,7 @@
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
+      <c r="C286" s="6"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
@@ -29613,7 +29616,7 @@
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
+      <c r="C287" s="6"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
@@ -29627,7 +29630,7 @@
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
+      <c r="C288" s="6"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
@@ -29641,7 +29644,7 @@
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
+      <c r="C289" s="6"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
@@ -29655,7 +29658,7 @@
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
+      <c r="C290" s="6"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
@@ -29669,7 +29672,7 @@
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
+      <c r="C291" s="6"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
@@ -29683,7 +29686,7 @@
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+      <c r="C292" s="6"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
@@ -29697,7 +29700,7 @@
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+      <c r="C293" s="6"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
@@ -29711,7 +29714,7 @@
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
+      <c r="C294" s="6"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
@@ -29725,7 +29728,7 @@
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
+      <c r="C295" s="6"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
@@ -29739,7 +29742,7 @@
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
+      <c r="C296" s="6"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
@@ -29753,7 +29756,7 @@
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
+      <c r="C297" s="6"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
@@ -29767,7 +29770,7 @@
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
+      <c r="C298" s="6"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
@@ -29781,7 +29784,7 @@
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
+      <c r="C299" s="6"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
@@ -29795,7 +29798,7 @@
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
+      <c r="C300" s="6"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
@@ -29809,7 +29812,7 @@
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
+      <c r="C301" s="6"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
@@ -29823,7 +29826,7 @@
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
+      <c r="C302" s="6"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
@@ -29837,7 +29840,7 @@
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
+      <c r="C303" s="6"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
@@ -29851,7 +29854,7 @@
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
+      <c r="C304" s="6"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
@@ -29865,7 +29868,7 @@
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
+      <c r="C305" s="6"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
@@ -29879,7 +29882,7 @@
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
+      <c r="C306" s="6"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
@@ -29893,7 +29896,7 @@
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
+      <c r="C307" s="6"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
@@ -29907,7 +29910,7 @@
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
+      <c r="C308" s="6"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
@@ -29921,7 +29924,7 @@
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
+      <c r="C309" s="6"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
@@ -29935,7 +29938,7 @@
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
+      <c r="C310" s="6"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
@@ -29949,7 +29952,7 @@
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
+      <c r="C311" s="6"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
@@ -29963,7 +29966,7 @@
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
+      <c r="C312" s="6"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
@@ -29977,7 +29980,7 @@
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
+      <c r="C313" s="6"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
@@ -29991,7 +29994,7 @@
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
+      <c r="C314" s="6"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
@@ -30005,7 +30008,7 @@
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
+      <c r="C315" s="6"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
@@ -30019,7 +30022,7 @@
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
+      <c r="C316" s="6"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -30033,7 +30036,7 @@
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
+      <c r="C317" s="6"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -30047,7 +30050,7 @@
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
+      <c r="C318" s="6"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
@@ -30061,7 +30064,7 @@
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
+      <c r="C319" s="6"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
@@ -30075,7 +30078,7 @@
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
+      <c r="C320" s="6"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
@@ -30089,7 +30092,7 @@
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
+      <c r="C321" s="6"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
@@ -30103,7 +30106,7 @@
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
+      <c r="C322" s="6"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
@@ -30117,7 +30120,7 @@
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
+      <c r="C323" s="6"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
@@ -30131,7 +30134,7 @@
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
+      <c r="C324" s="6"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
@@ -30145,7 +30148,7 @@
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
+      <c r="C325" s="6"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
@@ -30159,7 +30162,7 @@
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
+      <c r="C326" s="6"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
@@ -30173,7 +30176,7 @@
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
+      <c r="C327" s="6"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
@@ -30187,7 +30190,7 @@
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
+      <c r="C328" s="6"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
@@ -30201,7 +30204,7 @@
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
+      <c r="C329" s="6"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
@@ -30215,7 +30218,7 @@
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
+      <c r="C330" s="6"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
@@ -30229,7 +30232,7 @@
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
+      <c r="C331" s="6"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
@@ -30243,7 +30246,7 @@
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
+      <c r="C332" s="6"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
@@ -30257,7 +30260,7 @@
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
+      <c r="C333" s="6"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
@@ -30271,7 +30274,7 @@
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
+      <c r="C334" s="6"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
@@ -30285,7 +30288,7 @@
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
+      <c r="C335" s="6"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
@@ -30299,7 +30302,7 @@
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
+      <c r="C336" s="6"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
@@ -30313,7 +30316,7 @@
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
+      <c r="C337" s="6"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
@@ -30327,7 +30330,7 @@
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
+      <c r="C338" s="6"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
@@ -30341,7 +30344,7 @@
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
+      <c r="C339" s="6"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
@@ -30355,7 +30358,7 @@
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
+      <c r="C340" s="6"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
@@ -30369,7 +30372,7 @@
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
+      <c r="C341" s="6"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
@@ -30383,7 +30386,7 @@
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
+      <c r="C342" s="6"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
@@ -30397,7 +30400,7 @@
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
+      <c r="C343" s="6"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
@@ -30411,7 +30414,7 @@
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
+      <c r="C344" s="6"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
@@ -30425,7 +30428,7 @@
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
+      <c r="C345" s="6"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
@@ -30439,7 +30442,7 @@
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
+      <c r="C346" s="6"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
@@ -30453,7 +30456,7 @@
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
+      <c r="C347" s="6"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
@@ -30467,7 +30470,7 @@
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
+      <c r="C348" s="6"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
@@ -30481,7 +30484,7 @@
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
+      <c r="C349" s="6"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
@@ -30495,7 +30498,7 @@
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
+      <c r="C350" s="6"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
@@ -30509,7 +30512,7 @@
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
+      <c r="C351" s="6"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
@@ -30523,7 +30526,7 @@
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
-      <c r="C352" s="4"/>
+      <c r="C352" s="6"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
@@ -30537,7 +30540,7 @@
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
+      <c r="C353" s="6"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
@@ -30551,7 +30554,7 @@
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
+      <c r="C354" s="6"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
@@ -30565,7 +30568,7 @@
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
+      <c r="C355" s="6"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
@@ -30579,7 +30582,7 @@
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
+      <c r="C356" s="6"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
@@ -30593,7 +30596,7 @@
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
+      <c r="C357" s="6"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
@@ -30607,7 +30610,7 @@
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
+      <c r="C358" s="6"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
@@ -30621,7 +30624,7 @@
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="4"/>
+      <c r="C359" s="6"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
@@ -30635,7 +30638,7 @@
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
+      <c r="C360" s="6"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
@@ -30649,7 +30652,7 @@
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
+      <c r="C361" s="6"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
@@ -30663,7 +30666,7 @@
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
+      <c r="C362" s="6"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
@@ -30677,7 +30680,7 @@
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
+      <c r="C363" s="6"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
@@ -30691,7 +30694,7 @@
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
+      <c r="C364" s="6"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
@@ -30705,7 +30708,7 @@
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
+      <c r="C365" s="6"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
@@ -30719,7 +30722,7 @@
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
+      <c r="C366" s="6"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
@@ -30733,7 +30736,7 @@
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
+      <c r="C367" s="6"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
@@ -30747,7 +30750,7 @@
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
-      <c r="C368" s="4"/>
+      <c r="C368" s="6"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
@@ -30761,7 +30764,7 @@
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
+      <c r="C369" s="6"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
@@ -30775,7 +30778,7 @@
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
+      <c r="C370" s="6"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
@@ -30789,7 +30792,7 @@
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
-      <c r="C371" s="4"/>
+      <c r="C371" s="6"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
@@ -30803,7 +30806,7 @@
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
-      <c r="C372" s="4"/>
+      <c r="C372" s="6"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
@@ -30817,7 +30820,7 @@
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
-      <c r="C373" s="4"/>
+      <c r="C373" s="6"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
@@ -30831,7 +30834,7 @@
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
+      <c r="C374" s="6"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
@@ -30845,7 +30848,7 @@
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
+      <c r="C375" s="6"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
@@ -30859,7 +30862,7 @@
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
+      <c r="C376" s="6"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
@@ -30873,7 +30876,7 @@
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
+      <c r="C377" s="6"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
@@ -30887,7 +30890,7 @@
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
+      <c r="C378" s="6"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
@@ -30901,7 +30904,7 @@
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
+      <c r="C379" s="6"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
@@ -30915,7 +30918,7 @@
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
+      <c r="C380" s="6"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
@@ -30929,7 +30932,7 @@
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
+      <c r="C381" s="6"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
@@ -30943,7 +30946,7 @@
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
-      <c r="C382" s="4"/>
+      <c r="C382" s="6"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
@@ -30957,7 +30960,7 @@
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
+      <c r="C383" s="6"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
@@ -30971,7 +30974,7 @@
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
-      <c r="C384" s="4"/>
+      <c r="C384" s="6"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
@@ -30985,7 +30988,7 @@
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
-      <c r="C385" s="4"/>
+      <c r="C385" s="6"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
@@ -30999,7 +31002,7 @@
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
+      <c r="C386" s="6"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
@@ -31013,7 +31016,7 @@
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
+      <c r="C387" s="6"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
@@ -31027,7 +31030,7 @@
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
+      <c r="C388" s="6"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
@@ -31041,7 +31044,7 @@
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
+      <c r="C389" s="6"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
@@ -31055,7 +31058,7 @@
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
-      <c r="C390" s="4"/>
+      <c r="C390" s="6"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
@@ -31069,7 +31072,7 @@
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
+      <c r="C391" s="6"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
@@ -31083,7 +31086,7 @@
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
+      <c r="C392" s="6"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
@@ -31097,7 +31100,7 @@
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
+      <c r="C393" s="6"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
@@ -31111,7 +31114,7 @@
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
-      <c r="C394" s="4"/>
+      <c r="C394" s="6"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
@@ -31125,7 +31128,7 @@
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
-      <c r="C395" s="4"/>
+      <c r="C395" s="6"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
@@ -31139,7 +31142,7 @@
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
-      <c r="C396" s="4"/>
+      <c r="C396" s="6"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
@@ -31153,7 +31156,7 @@
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
+      <c r="C397" s="6"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
@@ -31167,7 +31170,7 @@
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
+      <c r="C398" s="6"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
@@ -31181,7 +31184,7 @@
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
-      <c r="C399" s="4"/>
+      <c r="C399" s="6"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
@@ -31195,7 +31198,7 @@
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
+      <c r="C400" s="6"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
@@ -31209,7 +31212,7 @@
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
+      <c r="C401" s="6"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
@@ -31223,7 +31226,7 @@
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
-      <c r="C402" s="4"/>
+      <c r="C402" s="6"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
@@ -31237,7 +31240,7 @@
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
-      <c r="C403" s="4"/>
+      <c r="C403" s="6"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
@@ -31251,7 +31254,7 @@
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
-      <c r="C404" s="4"/>
+      <c r="C404" s="6"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
@@ -31265,7 +31268,7 @@
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
-      <c r="C405" s="4"/>
+      <c r="C405" s="6"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
@@ -31279,7 +31282,7 @@
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
-      <c r="C406" s="4"/>
+      <c r="C406" s="6"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
@@ -31293,7 +31296,7 @@
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
-      <c r="C407" s="4"/>
+      <c r="C407" s="6"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
@@ -31307,7 +31310,7 @@
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
-      <c r="C408" s="4"/>
+      <c r="C408" s="6"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
@@ -31321,7 +31324,7 @@
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
-      <c r="C409" s="4"/>
+      <c r="C409" s="6"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
@@ -31335,7 +31338,7 @@
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
-      <c r="C410" s="4"/>
+      <c r="C410" s="6"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
@@ -31349,7 +31352,7 @@
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
-      <c r="C411" s="4"/>
+      <c r="C411" s="6"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
@@ -31363,7 +31366,7 @@
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
-      <c r="C412" s="4"/>
+      <c r="C412" s="6"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
@@ -31377,7 +31380,7 @@
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
-      <c r="C413" s="4"/>
+      <c r="C413" s="6"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
@@ -31391,7 +31394,7 @@
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
-      <c r="C414" s="4"/>
+      <c r="C414" s="6"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
@@ -31405,7 +31408,7 @@
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
-      <c r="C415" s="4"/>
+      <c r="C415" s="6"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
@@ -31419,7 +31422,7 @@
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
-      <c r="C416" s="4"/>
+      <c r="C416" s="6"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
@@ -31433,7 +31436,7 @@
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
-      <c r="C417" s="4"/>
+      <c r="C417" s="6"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
@@ -31447,7 +31450,7 @@
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
-      <c r="C418" s="4"/>
+      <c r="C418" s="6"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
@@ -31461,7 +31464,7 @@
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
-      <c r="C419" s="4"/>
+      <c r="C419" s="6"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
@@ -31475,7 +31478,7 @@
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
-      <c r="C420" s="4"/>
+      <c r="C420" s="6"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
@@ -31489,7 +31492,7 @@
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
+      <c r="C421" s="6"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
@@ -31503,7 +31506,7 @@
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
-      <c r="C422" s="4"/>
+      <c r="C422" s="6"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
@@ -31517,7 +31520,7 @@
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
-      <c r="C423" s="4"/>
+      <c r="C423" s="6"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
@@ -31531,7 +31534,7 @@
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
+      <c r="C424" s="6"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
@@ -31545,7 +31548,7 @@
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
-      <c r="C425" s="4"/>
+      <c r="C425" s="6"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
@@ -31559,7 +31562,7 @@
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
-      <c r="C426" s="4"/>
+      <c r="C426" s="6"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
@@ -31573,7 +31576,7 @@
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
-      <c r="C427" s="4"/>
+      <c r="C427" s="6"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
@@ -31587,7 +31590,7 @@
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
-      <c r="C428" s="4"/>
+      <c r="C428" s="6"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
@@ -31601,7 +31604,7 @@
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
+      <c r="C429" s="6"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
@@ -31615,7 +31618,7 @@
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
-      <c r="C430" s="4"/>
+      <c r="C430" s="6"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
@@ -31629,7 +31632,7 @@
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
+      <c r="C431" s="6"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
@@ -31643,7 +31646,7 @@
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
-      <c r="C432" s="4"/>
+      <c r="C432" s="6"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
@@ -31657,7 +31660,7 @@
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
+      <c r="C433" s="6"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
@@ -31671,7 +31674,7 @@
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
+      <c r="C434" s="6"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
@@ -31685,7 +31688,7 @@
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
-      <c r="C435" s="4"/>
+      <c r="C435" s="6"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
@@ -31699,7 +31702,7 @@
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
-      <c r="C436" s="4"/>
+      <c r="C436" s="6"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
@@ -31713,7 +31716,7 @@
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
+      <c r="C437" s="6"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
@@ -31727,7 +31730,7 @@
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
-      <c r="C438" s="4"/>
+      <c r="C438" s="6"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
@@ -31741,7 +31744,7 @@
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
-      <c r="C439" s="4"/>
+      <c r="C439" s="6"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
@@ -31755,7 +31758,7 @@
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
-      <c r="C440" s="4"/>
+      <c r="C440" s="6"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
@@ -31769,7 +31772,7 @@
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
-      <c r="C441" s="4"/>
+      <c r="C441" s="6"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
@@ -31783,7 +31786,7 @@
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
-      <c r="C442" s="4"/>
+      <c r="C442" s="6"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
@@ -31797,7 +31800,7 @@
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
-      <c r="C443" s="4"/>
+      <c r="C443" s="6"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
@@ -31811,7 +31814,7 @@
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
-      <c r="C444" s="4"/>
+      <c r="C444" s="6"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
@@ -31825,7 +31828,7 @@
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
-      <c r="C445" s="4"/>
+      <c r="C445" s="6"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
@@ -31839,7 +31842,7 @@
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
-      <c r="C446" s="4"/>
+      <c r="C446" s="6"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
@@ -31853,7 +31856,7 @@
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
-      <c r="C447" s="4"/>
+      <c r="C447" s="6"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
@@ -31867,7 +31870,7 @@
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
-      <c r="C448" s="4"/>
+      <c r="C448" s="6"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
@@ -31881,7 +31884,7 @@
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
-      <c r="C449" s="4"/>
+      <c r="C449" s="6"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
@@ -31895,7 +31898,7 @@
     <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
-      <c r="C450" s="4"/>
+      <c r="C450" s="6"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
@@ -31909,7 +31912,7 @@
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
-      <c r="C451" s="4"/>
+      <c r="C451" s="6"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
@@ -31923,7 +31926,7 @@
     <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
-      <c r="C452" s="4"/>
+      <c r="C452" s="6"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
@@ -31937,7 +31940,7 @@
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
-      <c r="C453" s="4"/>
+      <c r="C453" s="6"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
@@ -31951,7 +31954,7 @@
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
-      <c r="C454" s="4"/>
+      <c r="C454" s="6"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
@@ -31965,7 +31968,7 @@
     <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
-      <c r="C455" s="4"/>
+      <c r="C455" s="6"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
@@ -31979,7 +31982,7 @@
     <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
-      <c r="C456" s="4"/>
+      <c r="C456" s="6"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
@@ -31993,7 +31996,7 @@
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
-      <c r="C457" s="4"/>
+      <c r="C457" s="6"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
@@ -32007,7 +32010,7 @@
     <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
-      <c r="C458" s="4"/>
+      <c r="C458" s="6"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
@@ -32021,7 +32024,7 @@
     <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
-      <c r="C459" s="4"/>
+      <c r="C459" s="6"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
@@ -32035,7 +32038,7 @@
     <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
-      <c r="C460" s="4"/>
+      <c r="C460" s="6"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
@@ -32049,7 +32052,7 @@
     <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
-      <c r="C461" s="4"/>
+      <c r="C461" s="6"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
@@ -32063,7 +32066,7 @@
     <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
-      <c r="C462" s="4"/>
+      <c r="C462" s="6"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
@@ -32077,7 +32080,7 @@
     <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
+      <c r="C463" s="6"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
@@ -32091,7 +32094,7 @@
     <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
-      <c r="C464" s="4"/>
+      <c r="C464" s="6"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
@@ -32105,7 +32108,7 @@
     <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
-      <c r="C465" s="4"/>
+      <c r="C465" s="6"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
@@ -32119,7 +32122,7 @@
     <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
-      <c r="C466" s="4"/>
+      <c r="C466" s="6"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
@@ -32133,7 +32136,7 @@
     <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
-      <c r="C467" s="4"/>
+      <c r="C467" s="6"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
@@ -32147,7 +32150,7 @@
     <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
-      <c r="C468" s="4"/>
+      <c r="C468" s="6"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
@@ -32161,7 +32164,7 @@
     <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
-      <c r="C469" s="4"/>
+      <c r="C469" s="6"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
@@ -32175,7 +32178,7 @@
     <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
-      <c r="C470" s="4"/>
+      <c r="C470" s="6"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
@@ -32189,7 +32192,7 @@
     <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
-      <c r="C471" s="4"/>
+      <c r="C471" s="6"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
@@ -32203,7 +32206,7 @@
     <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
-      <c r="C472" s="4"/>
+      <c r="C472" s="6"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
@@ -32217,7 +32220,7 @@
     <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
-      <c r="C473" s="4"/>
+      <c r="C473" s="6"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
@@ -32231,7 +32234,7 @@
     <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
-      <c r="C474" s="4"/>
+      <c r="C474" s="6"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
@@ -32245,7 +32248,7 @@
     <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
-      <c r="C475" s="4"/>
+      <c r="C475" s="6"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
@@ -32259,7 +32262,7 @@
     <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
-      <c r="C476" s="4"/>
+      <c r="C476" s="6"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
@@ -32273,7 +32276,7 @@
     <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
-      <c r="C477" s="4"/>
+      <c r="C477" s="6"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
@@ -32287,7 +32290,7 @@
     <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
-      <c r="C478" s="4"/>
+      <c r="C478" s="6"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
@@ -32301,7 +32304,7 @@
     <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
-      <c r="C479" s="4"/>
+      <c r="C479" s="6"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
@@ -32315,7 +32318,7 @@
     <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
-      <c r="C480" s="4"/>
+      <c r="C480" s="6"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
@@ -32329,7 +32332,7 @@
     <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
-      <c r="C481" s="4"/>
+      <c r="C481" s="6"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
@@ -32343,7 +32346,7 @@
     <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
-      <c r="C482" s="4"/>
+      <c r="C482" s="6"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
@@ -32357,7 +32360,7 @@
     <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
-      <c r="C483" s="4"/>
+      <c r="C483" s="6"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
@@ -32371,7 +32374,7 @@
     <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
-      <c r="C484" s="4"/>
+      <c r="C484" s="6"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
@@ -32385,7 +32388,7 @@
     <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
-      <c r="C485" s="4"/>
+      <c r="C485" s="6"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
@@ -32399,7 +32402,7 @@
     <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
-      <c r="C486" s="4"/>
+      <c r="C486" s="6"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
@@ -32413,7 +32416,7 @@
     <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
-      <c r="C487" s="4"/>
+      <c r="C487" s="6"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
@@ -32427,7 +32430,7 @@
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
-      <c r="C488" s="4"/>
+      <c r="C488" s="6"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
@@ -32441,7 +32444,7 @@
     <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
-      <c r="C489" s="4"/>
+      <c r="C489" s="6"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
@@ -32455,7 +32458,7 @@
     <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
-      <c r="C490" s="4"/>
+      <c r="C490" s="6"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
@@ -32469,7 +32472,7 @@
     <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
-      <c r="C491" s="4"/>
+      <c r="C491" s="6"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
@@ -32483,7 +32486,7 @@
     <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
-      <c r="C492" s="4"/>
+      <c r="C492" s="6"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
@@ -32497,7 +32500,7 @@
     <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
-      <c r="C493" s="4"/>
+      <c r="C493" s="6"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
@@ -32511,7 +32514,7 @@
     <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
-      <c r="C494" s="4"/>
+      <c r="C494" s="6"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
@@ -32525,7 +32528,7 @@
     <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
-      <c r="C495" s="4"/>
+      <c r="C495" s="6"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
@@ -32539,7 +32542,7 @@
     <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
-      <c r="C496" s="4"/>
+      <c r="C496" s="6"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
@@ -32553,7 +32556,7 @@
     <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
-      <c r="C497" s="4"/>
+      <c r="C497" s="6"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
@@ -32567,7 +32570,7 @@
     <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
-      <c r="C498" s="4"/>
+      <c r="C498" s="6"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
@@ -32581,7 +32584,7 @@
     <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
-      <c r="C499" s="4"/>
+      <c r="C499" s="6"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
@@ -32595,7 +32598,7 @@
     <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
-      <c r="C500" s="4"/>
+      <c r="C500" s="6"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
@@ -32609,7 +32612,7 @@
     <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
-      <c r="C501" s="4"/>
+      <c r="C501" s="6"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
@@ -32623,7 +32626,7 @@
     <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
-      <c r="C502" s="4"/>
+      <c r="C502" s="6"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
@@ -32637,7 +32640,7 @@
     <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
-      <c r="C503" s="4"/>
+      <c r="C503" s="6"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
@@ -32651,7 +32654,7 @@
     <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
-      <c r="C504" s="4"/>
+      <c r="C504" s="6"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
@@ -32665,7 +32668,7 @@
     <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
-      <c r="C505" s="4"/>
+      <c r="C505" s="6"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
@@ -32679,7 +32682,7 @@
     <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
-      <c r="C506" s="4"/>
+      <c r="C506" s="6"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
@@ -32693,7 +32696,7 @@
     <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
-      <c r="C507" s="4"/>
+      <c r="C507" s="6"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
@@ -32707,7 +32710,7 @@
     <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
-      <c r="C508" s="4"/>
+      <c r="C508" s="6"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
@@ -32721,7 +32724,7 @@
     <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
-      <c r="C509" s="4"/>
+      <c r="C509" s="6"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
@@ -32735,7 +32738,7 @@
     <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
-      <c r="C510" s="4"/>
+      <c r="C510" s="6"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
@@ -32749,7 +32752,7 @@
     <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
-      <c r="C511" s="4"/>
+      <c r="C511" s="6"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
@@ -32763,7 +32766,7 @@
     <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
-      <c r="C512" s="4"/>
+      <c r="C512" s="6"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
@@ -32777,7 +32780,7 @@
     <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
-      <c r="C513" s="4"/>
+      <c r="C513" s="6"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
@@ -32791,7 +32794,7 @@
     <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
-      <c r="C514" s="4"/>
+      <c r="C514" s="6"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
@@ -32805,7 +32808,7 @@
     <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
-      <c r="C515" s="4"/>
+      <c r="C515" s="6"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
@@ -32819,7 +32822,7 @@
     <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
-      <c r="C516" s="4"/>
+      <c r="C516" s="6"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
@@ -32833,7 +32836,7 @@
     <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
-      <c r="C517" s="4"/>
+      <c r="C517" s="6"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
@@ -32847,7 +32850,7 @@
     <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
-      <c r="C518" s="4"/>
+      <c r="C518" s="6"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
@@ -32861,7 +32864,7 @@
     <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
-      <c r="C519" s="4"/>
+      <c r="C519" s="6"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
@@ -32875,7 +32878,7 @@
     <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
-      <c r="C520" s="4"/>
+      <c r="C520" s="6"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
@@ -32889,7 +32892,7 @@
     <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
-      <c r="C521" s="4"/>
+      <c r="C521" s="6"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
@@ -32903,7 +32906,7 @@
     <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
-      <c r="C522" s="4"/>
+      <c r="C522" s="6"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
@@ -32917,7 +32920,7 @@
     <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
-      <c r="C523" s="4"/>
+      <c r="C523" s="6"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
@@ -32931,7 +32934,7 @@
     <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
-      <c r="C524" s="4"/>
+      <c r="C524" s="6"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
@@ -32945,7 +32948,7 @@
     <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
-      <c r="C525" s="4"/>
+      <c r="C525" s="6"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
@@ -32959,7 +32962,7 @@
     <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
-      <c r="C526" s="4"/>
+      <c r="C526" s="6"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
@@ -32973,7 +32976,7 @@
     <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
-      <c r="C527" s="4"/>
+      <c r="C527" s="6"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
@@ -32987,7 +32990,7 @@
     <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
-      <c r="C528" s="4"/>
+      <c r="C528" s="6"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
@@ -33001,7 +33004,7 @@
     <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
-      <c r="C529" s="4"/>
+      <c r="C529" s="6"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
@@ -33015,7 +33018,7 @@
     <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
-      <c r="C530" s="4"/>
+      <c r="C530" s="6"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
@@ -33029,7 +33032,7 @@
     <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
-      <c r="C531" s="4"/>
+      <c r="C531" s="6"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
@@ -33043,7 +33046,7 @@
     <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
-      <c r="C532" s="4"/>
+      <c r="C532" s="6"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
@@ -33057,7 +33060,7 @@
     <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
-      <c r="C533" s="4"/>
+      <c r="C533" s="6"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
@@ -33071,7 +33074,7 @@
     <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
-      <c r="C534" s="4"/>
+      <c r="C534" s="6"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
@@ -33085,7 +33088,7 @@
     <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
-      <c r="C535" s="4"/>
+      <c r="C535" s="6"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
@@ -33099,7 +33102,7 @@
     <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
-      <c r="C536" s="4"/>
+      <c r="C536" s="6"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
@@ -33113,7 +33116,7 @@
     <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
-      <c r="C537" s="4"/>
+      <c r="C537" s="6"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
@@ -33127,7 +33130,7 @@
     <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
-      <c r="C538" s="4"/>
+      <c r="C538" s="6"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
@@ -33141,7 +33144,7 @@
     <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
-      <c r="C539" s="4"/>
+      <c r="C539" s="6"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
@@ -33155,7 +33158,7 @@
     <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
-      <c r="C540" s="4"/>
+      <c r="C540" s="6"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
@@ -33169,7 +33172,7 @@
     <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
-      <c r="C541" s="4"/>
+      <c r="C541" s="6"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
@@ -33183,7 +33186,7 @@
     <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
-      <c r="C542" s="4"/>
+      <c r="C542" s="6"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
@@ -33197,7 +33200,7 @@
     <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
-      <c r="C543" s="4"/>
+      <c r="C543" s="6"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
@@ -33211,7 +33214,7 @@
     <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
-      <c r="C544" s="4"/>
+      <c r="C544" s="6"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
@@ -33225,7 +33228,7 @@
     <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
-      <c r="C545" s="4"/>
+      <c r="C545" s="6"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
@@ -33239,7 +33242,7 @@
     <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
-      <c r="C546" s="4"/>
+      <c r="C546" s="6"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
@@ -33253,7 +33256,7 @@
     <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
-      <c r="C547" s="4"/>
+      <c r="C547" s="6"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
@@ -33267,7 +33270,7 @@
     <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
-      <c r="C548" s="4"/>
+      <c r="C548" s="6"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
@@ -33281,7 +33284,7 @@
     <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
-      <c r="C549" s="4"/>
+      <c r="C549" s="6"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
@@ -33295,7 +33298,7 @@
     <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
-      <c r="C550" s="4"/>
+      <c r="C550" s="6"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
@@ -33309,7 +33312,7 @@
     <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
-      <c r="C551" s="4"/>
+      <c r="C551" s="6"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
@@ -33323,7 +33326,7 @@
     <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
-      <c r="C552" s="4"/>
+      <c r="C552" s="6"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
@@ -33337,7 +33340,7 @@
     <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
-      <c r="C553" s="4"/>
+      <c r="C553" s="6"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
@@ -33351,7 +33354,7 @@
     <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
-      <c r="C554" s="4"/>
+      <c r="C554" s="6"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
@@ -33365,7 +33368,7 @@
     <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
-      <c r="C555" s="4"/>
+      <c r="C555" s="6"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
@@ -33379,7 +33382,7 @@
     <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
-      <c r="C556" s="4"/>
+      <c r="C556" s="6"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
@@ -33393,7 +33396,7 @@
     <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
-      <c r="C557" s="4"/>
+      <c r="C557" s="6"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
@@ -33407,7 +33410,7 @@
     <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
-      <c r="C558" s="4"/>
+      <c r="C558" s="6"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
@@ -33421,7 +33424,7 @@
     <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
-      <c r="C559" s="4"/>
+      <c r="C559" s="6"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
@@ -33435,7 +33438,7 @@
     <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
-      <c r="C560" s="4"/>
+      <c r="C560" s="6"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
@@ -33449,7 +33452,7 @@
     <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
-      <c r="C561" s="4"/>
+      <c r="C561" s="6"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
@@ -33463,7 +33466,7 @@
     <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
+      <c r="C562" s="6"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
@@ -33477,7 +33480,7 @@
     <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
-      <c r="C563" s="4"/>
+      <c r="C563" s="6"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
@@ -33491,7 +33494,7 @@
     <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
-      <c r="C564" s="4"/>
+      <c r="C564" s="6"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
@@ -33505,7 +33508,7 @@
     <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
-      <c r="C565" s="4"/>
+      <c r="C565" s="6"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
@@ -33519,7 +33522,7 @@
     <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
-      <c r="C566" s="4"/>
+      <c r="C566" s="6"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
@@ -33533,7 +33536,7 @@
     <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
-      <c r="C567" s="4"/>
+      <c r="C567" s="6"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
@@ -33547,7 +33550,7 @@
     <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
-      <c r="C568" s="4"/>
+      <c r="C568" s="6"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
@@ -33561,7 +33564,7 @@
     <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
-      <c r="C569" s="4"/>
+      <c r="C569" s="6"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
@@ -33575,7 +33578,7 @@
     <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
-      <c r="C570" s="4"/>
+      <c r="C570" s="6"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
@@ -33589,7 +33592,7 @@
     <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
-      <c r="C571" s="4"/>
+      <c r="C571" s="6"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
@@ -33603,7 +33606,7 @@
     <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
-      <c r="C572" s="4"/>
+      <c r="C572" s="6"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
@@ -33617,7 +33620,7 @@
     <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
-      <c r="C573" s="4"/>
+      <c r="C573" s="6"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
@@ -33631,7 +33634,7 @@
     <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
-      <c r="C574" s="4"/>
+      <c r="C574" s="6"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
@@ -33645,7 +33648,7 @@
     <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
-      <c r="C575" s="4"/>
+      <c r="C575" s="6"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
@@ -33659,7 +33662,7 @@
     <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
-      <c r="C576" s="4"/>
+      <c r="C576" s="6"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
@@ -33673,7 +33676,7 @@
     <row r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
-      <c r="C577" s="4"/>
+      <c r="C577" s="6"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
@@ -33687,7 +33690,7 @@
     <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
-      <c r="C578" s="4"/>
+      <c r="C578" s="6"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
@@ -33701,7 +33704,7 @@
     <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
-      <c r="C579" s="4"/>
+      <c r="C579" s="6"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
@@ -33715,7 +33718,7 @@
     <row r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
-      <c r="C580" s="4"/>
+      <c r="C580" s="6"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
@@ -33729,7 +33732,7 @@
     <row r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
-      <c r="C581" s="4"/>
+      <c r="C581" s="6"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
@@ -33743,7 +33746,7 @@
     <row r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
-      <c r="C582" s="4"/>
+      <c r="C582" s="6"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
@@ -33757,7 +33760,7 @@
     <row r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
-      <c r="C583" s="4"/>
+      <c r="C583" s="6"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
@@ -33771,7 +33774,7 @@
     <row r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
-      <c r="C584" s="4"/>
+      <c r="C584" s="6"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
@@ -33785,7 +33788,7 @@
     <row r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
-      <c r="C585" s="4"/>
+      <c r="C585" s="6"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
@@ -33799,7 +33802,7 @@
     <row r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
-      <c r="C586" s="4"/>
+      <c r="C586" s="6"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
@@ -33813,7 +33816,7 @@
     <row r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
-      <c r="C587" s="4"/>
+      <c r="C587" s="6"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
@@ -33827,7 +33830,7 @@
     <row r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
-      <c r="C588" s="4"/>
+      <c r="C588" s="6"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
@@ -33841,7 +33844,7 @@
     <row r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
-      <c r="C589" s="4"/>
+      <c r="C589" s="6"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
@@ -33855,7 +33858,7 @@
     <row r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
-      <c r="C590" s="4"/>
+      <c r="C590" s="6"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
@@ -33869,7 +33872,7 @@
     <row r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
-      <c r="C591" s="4"/>
+      <c r="C591" s="6"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
@@ -33883,7 +33886,7 @@
     <row r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
-      <c r="C592" s="4"/>
+      <c r="C592" s="6"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
@@ -33897,7 +33900,7 @@
     <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
-      <c r="C593" s="4"/>
+      <c r="C593" s="6"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
@@ -33911,7 +33914,7 @@
     <row r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
-      <c r="C594" s="4"/>
+      <c r="C594" s="6"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
@@ -33925,7 +33928,7 @@
     <row r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
-      <c r="C595" s="4"/>
+      <c r="C595" s="6"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
@@ -33939,7 +33942,7 @@
     <row r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
-      <c r="C596" s="4"/>
+      <c r="C596" s="6"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
@@ -33953,7 +33956,7 @@
     <row r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
-      <c r="C597" s="4"/>
+      <c r="C597" s="6"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
@@ -33967,7 +33970,7 @@
     <row r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
-      <c r="C598" s="4"/>
+      <c r="C598" s="6"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
@@ -33981,7 +33984,7 @@
     <row r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
-      <c r="C599" s="4"/>
+      <c r="C599" s="6"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
@@ -33995,7 +33998,7 @@
     <row r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
-      <c r="C600" s="4"/>
+      <c r="C600" s="6"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
@@ -34009,7 +34012,7 @@
     <row r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
-      <c r="C601" s="4"/>
+      <c r="C601" s="6"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
@@ -34023,7 +34026,7 @@
     <row r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
-      <c r="C602" s="4"/>
+      <c r="C602" s="6"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
@@ -34037,7 +34040,7 @@
     <row r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
-      <c r="C603" s="4"/>
+      <c r="C603" s="6"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
@@ -34051,7 +34054,7 @@
     <row r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
-      <c r="C604" s="4"/>
+      <c r="C604" s="6"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
@@ -34065,7 +34068,7 @@
     <row r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
-      <c r="C605" s="4"/>
+      <c r="C605" s="6"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
@@ -34079,7 +34082,7 @@
     <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
-      <c r="C606" s="4"/>
+      <c r="C606" s="6"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
@@ -34093,7 +34096,7 @@
     <row r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
-      <c r="C607" s="4"/>
+      <c r="C607" s="6"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
@@ -34107,7 +34110,7 @@
     <row r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
-      <c r="C608" s="4"/>
+      <c r="C608" s="6"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
@@ -34121,7 +34124,7 @@
     <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
-      <c r="C609" s="4"/>
+      <c r="C609" s="6"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
@@ -34135,7 +34138,7 @@
     <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
-      <c r="C610" s="4"/>
+      <c r="C610" s="6"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
@@ -34149,7 +34152,7 @@
     <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
-      <c r="C611" s="4"/>
+      <c r="C611" s="6"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
@@ -34163,7 +34166,7 @@
     <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
-      <c r="C612" s="4"/>
+      <c r="C612" s="6"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
@@ -34177,7 +34180,7 @@
     <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
-      <c r="C613" s="4"/>
+      <c r="C613" s="6"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
@@ -34191,7 +34194,7 @@
     <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
-      <c r="C614" s="4"/>
+      <c r="C614" s="6"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
@@ -34205,7 +34208,7 @@
     <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
-      <c r="C615" s="4"/>
+      <c r="C615" s="6"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
@@ -34219,7 +34222,7 @@
     <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
-      <c r="C616" s="4"/>
+      <c r="C616" s="6"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
@@ -34233,7 +34236,7 @@
     <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
-      <c r="C617" s="4"/>
+      <c r="C617" s="6"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
@@ -34247,7 +34250,7 @@
     <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
-      <c r="C618" s="4"/>
+      <c r="C618" s="6"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
@@ -34261,7 +34264,7 @@
     <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
-      <c r="C619" s="4"/>
+      <c r="C619" s="6"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
@@ -34275,7 +34278,7 @@
     <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
-      <c r="C620" s="4"/>
+      <c r="C620" s="6"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
@@ -34289,7 +34292,7 @@
     <row r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
-      <c r="C621" s="4"/>
+      <c r="C621" s="6"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
@@ -34303,7 +34306,7 @@
     <row r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
-      <c r="C622" s="4"/>
+      <c r="C622" s="6"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
@@ -34317,7 +34320,7 @@
     <row r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
-      <c r="C623" s="4"/>
+      <c r="C623" s="6"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
@@ -34331,7 +34334,7 @@
     <row r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
-      <c r="C624" s="4"/>
+      <c r="C624" s="6"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
@@ -34345,7 +34348,7 @@
     <row r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
-      <c r="C625" s="4"/>
+      <c r="C625" s="6"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
@@ -34359,7 +34362,7 @@
     <row r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
-      <c r="C626" s="4"/>
+      <c r="C626" s="6"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
@@ -34373,7 +34376,7 @@
     <row r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
-      <c r="C627" s="4"/>
+      <c r="C627" s="6"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
@@ -34387,7 +34390,7 @@
     <row r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
-      <c r="C628" s="4"/>
+      <c r="C628" s="6"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
@@ -34401,7 +34404,7 @@
     <row r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
-      <c r="C629" s="4"/>
+      <c r="C629" s="6"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
@@ -34415,7 +34418,7 @@
     <row r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
-      <c r="C630" s="4"/>
+      <c r="C630" s="6"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
@@ -34429,7 +34432,7 @@
     <row r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
-      <c r="C631" s="4"/>
+      <c r="C631" s="6"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
@@ -34443,7 +34446,7 @@
     <row r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
-      <c r="C632" s="4"/>
+      <c r="C632" s="6"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
@@ -34457,7 +34460,7 @@
     <row r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
-      <c r="C633" s="4"/>
+      <c r="C633" s="6"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
@@ -34471,7 +34474,7 @@
     <row r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
-      <c r="C634" s="4"/>
+      <c r="C634" s="6"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
@@ -34485,7 +34488,7 @@
     <row r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
-      <c r="C635" s="4"/>
+      <c r="C635" s="6"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
@@ -34499,7 +34502,7 @@
     <row r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
-      <c r="C636" s="4"/>
+      <c r="C636" s="6"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
@@ -34513,7 +34516,7 @@
     <row r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
-      <c r="C637" s="4"/>
+      <c r="C637" s="6"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
@@ -34527,7 +34530,7 @@
     <row r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
-      <c r="C638" s="4"/>
+      <c r="C638" s="6"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
@@ -34541,7 +34544,7 @@
     <row r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
-      <c r="C639" s="4"/>
+      <c r="C639" s="6"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
@@ -34555,7 +34558,7 @@
     <row r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
-      <c r="C640" s="4"/>
+      <c r="C640" s="6"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
@@ -34569,7 +34572,7 @@
     <row r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
-      <c r="C641" s="4"/>
+      <c r="C641" s="6"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
@@ -34583,7 +34586,7 @@
     <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
-      <c r="C642" s="4"/>
+      <c r="C642" s="6"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
@@ -34597,7 +34600,7 @@
     <row r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
-      <c r="C643" s="4"/>
+      <c r="C643" s="6"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
@@ -34611,7 +34614,7 @@
     <row r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
-      <c r="C644" s="4"/>
+      <c r="C644" s="6"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
@@ -34625,7 +34628,7 @@
     <row r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
-      <c r="C645" s="4"/>
+      <c r="C645" s="6"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
@@ -34639,7 +34642,7 @@
     <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
-      <c r="C646" s="4"/>
+      <c r="C646" s="6"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
@@ -34653,7 +34656,7 @@
     <row r="647" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
-      <c r="C647" s="4"/>
+      <c r="C647" s="6"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
@@ -34667,7 +34670,7 @@
     <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
-      <c r="C648" s="4"/>
+      <c r="C648" s="6"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
@@ -34681,7 +34684,7 @@
     <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
-      <c r="C649" s="4"/>
+      <c r="C649" s="6"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
@@ -34695,7 +34698,7 @@
     <row r="650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
-      <c r="C650" s="4"/>
+      <c r="C650" s="6"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
@@ -34709,7 +34712,7 @@
     <row r="651" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
-      <c r="C651" s="4"/>
+      <c r="C651" s="6"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
@@ -34723,7 +34726,7 @@
     <row r="652" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
-      <c r="C652" s="4"/>
+      <c r="C652" s="6"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
@@ -34737,7 +34740,7 @@
     <row r="653" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
-      <c r="C653" s="4"/>
+      <c r="C653" s="6"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
@@ -34751,7 +34754,7 @@
     <row r="654" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
-      <c r="C654" s="4"/>
+      <c r="C654" s="6"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
@@ -34765,7 +34768,7 @@
     <row r="655" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
-      <c r="C655" s="4"/>
+      <c r="C655" s="6"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
@@ -34779,7 +34782,7 @@
     <row r="656" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
-      <c r="C656" s="4"/>
+      <c r="C656" s="6"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
@@ -34793,7 +34796,7 @@
     <row r="657" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
-      <c r="C657" s="4"/>
+      <c r="C657" s="6"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
@@ -34807,7 +34810,7 @@
     <row r="658" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
-      <c r="C658" s="4"/>
+      <c r="C658" s="6"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
@@ -34821,7 +34824,7 @@
     <row r="659" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
-      <c r="C659" s="4"/>
+      <c r="C659" s="6"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
@@ -34835,7 +34838,7 @@
     <row r="660" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
-      <c r="C660" s="4"/>
+      <c r="C660" s="6"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
@@ -34849,7 +34852,7 @@
     <row r="661" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
-      <c r="C661" s="4"/>
+      <c r="C661" s="6"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
@@ -34863,7 +34866,7 @@
     <row r="662" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
-      <c r="C662" s="4"/>
+      <c r="C662" s="6"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
@@ -34877,7 +34880,7 @@
     <row r="663" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
-      <c r="C663" s="4"/>
+      <c r="C663" s="6"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
@@ -34891,7 +34894,7 @@
     <row r="664" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
-      <c r="C664" s="4"/>
+      <c r="C664" s="6"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
@@ -34905,7 +34908,7 @@
     <row r="665" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
-      <c r="C665" s="4"/>
+      <c r="C665" s="6"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
@@ -34919,7 +34922,7 @@
     <row r="666" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
-      <c r="C666" s="4"/>
+      <c r="C666" s="6"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
@@ -34933,7 +34936,7 @@
     <row r="667" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
-      <c r="C667" s="4"/>
+      <c r="C667" s="6"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
@@ -34947,7 +34950,7 @@
     <row r="668" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
-      <c r="C668" s="4"/>
+      <c r="C668" s="6"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
@@ -34961,7 +34964,7 @@
     <row r="669" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
-      <c r="C669" s="4"/>
+      <c r="C669" s="6"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
@@ -34975,7 +34978,7 @@
     <row r="670" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
-      <c r="C670" s="4"/>
+      <c r="C670" s="6"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
@@ -34989,7 +34992,7 @@
     <row r="671" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
-      <c r="C671" s="4"/>
+      <c r="C671" s="6"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
@@ -35003,7 +35006,7 @@
     <row r="672" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
-      <c r="C672" s="4"/>
+      <c r="C672" s="6"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
@@ -35017,7 +35020,7 @@
     <row r="673" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
-      <c r="C673" s="4"/>
+      <c r="C673" s="6"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
@@ -35031,7 +35034,7 @@
     <row r="674" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
-      <c r="C674" s="4"/>
+      <c r="C674" s="6"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
@@ -35045,7 +35048,7 @@
     <row r="675" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
-      <c r="C675" s="4"/>
+      <c r="C675" s="6"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
@@ -35059,7 +35062,7 @@
     <row r="676" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
-      <c r="C676" s="4"/>
+      <c r="C676" s="6"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
@@ -35073,7 +35076,7 @@
     <row r="677" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
-      <c r="C677" s="4"/>
+      <c r="C677" s="6"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
@@ -35087,7 +35090,7 @@
     <row r="678" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
-      <c r="C678" s="4"/>
+      <c r="C678" s="6"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
@@ -35101,7 +35104,7 @@
     <row r="679" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
-      <c r="C679" s="4"/>
+      <c r="C679" s="6"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
@@ -35115,7 +35118,7 @@
     <row r="680" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
-      <c r="C680" s="4"/>
+      <c r="C680" s="6"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
@@ -35129,7 +35132,7 @@
     <row r="681" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
-      <c r="C681" s="4"/>
+      <c r="C681" s="6"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
@@ -35143,7 +35146,7 @@
     <row r="682" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
-      <c r="C682" s="4"/>
+      <c r="C682" s="6"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
@@ -35157,7 +35160,7 @@
     <row r="683" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
-      <c r="C683" s="4"/>
+      <c r="C683" s="6"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
@@ -35171,7 +35174,7 @@
     <row r="684" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
-      <c r="C684" s="4"/>
+      <c r="C684" s="6"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
@@ -35185,7 +35188,7 @@
     <row r="685" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
-      <c r="C685" s="4"/>
+      <c r="C685" s="6"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
@@ -35199,7 +35202,7 @@
     <row r="686" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
-      <c r="C686" s="4"/>
+      <c r="C686" s="6"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
@@ -35213,7 +35216,7 @@
     <row r="687" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
-      <c r="C687" s="4"/>
+      <c r="C687" s="6"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
@@ -35227,7 +35230,7 @@
     <row r="688" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
-      <c r="C688" s="4"/>
+      <c r="C688" s="6"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
@@ -35241,7 +35244,7 @@
     <row r="689" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
-      <c r="C689" s="4"/>
+      <c r="C689" s="6"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
@@ -35255,7 +35258,7 @@
     <row r="690" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
-      <c r="C690" s="4"/>
+      <c r="C690" s="6"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
@@ -35269,7 +35272,7 @@
     <row r="691" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
-      <c r="C691" s="4"/>
+      <c r="C691" s="6"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
@@ -35283,7 +35286,7 @@
     <row r="692" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
-      <c r="C692" s="4"/>
+      <c r="C692" s="6"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
@@ -35297,7 +35300,7 @@
     <row r="693" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
-      <c r="C693" s="4"/>
+      <c r="C693" s="6"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
@@ -35311,7 +35314,7 @@
     <row r="694" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
-      <c r="C694" s="4"/>
+      <c r="C694" s="6"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
@@ -35325,7 +35328,7 @@
     <row r="695" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
-      <c r="C695" s="4"/>
+      <c r="C695" s="6"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
@@ -35339,7 +35342,7 @@
     <row r="696" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
-      <c r="C696" s="4"/>
+      <c r="C696" s="6"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
@@ -35353,7 +35356,7 @@
     <row r="697" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
-      <c r="C697" s="4"/>
+      <c r="C697" s="6"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
@@ -35367,7 +35370,7 @@
     <row r="698" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
-      <c r="C698" s="4"/>
+      <c r="C698" s="6"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
@@ -35381,7 +35384,7 @@
     <row r="699" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
-      <c r="C699" s="4"/>
+      <c r="C699" s="6"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
@@ -35395,7 +35398,7 @@
     <row r="700" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
-      <c r="C700" s="4"/>
+      <c r="C700" s="6"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
@@ -35409,7 +35412,7 @@
     <row r="701" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
-      <c r="C701" s="4"/>
+      <c r="C701" s="6"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
@@ -35423,7 +35426,7 @@
     <row r="702" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
-      <c r="C702" s="4"/>
+      <c r="C702" s="6"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
@@ -35437,7 +35440,7 @@
     <row r="703" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
-      <c r="C703" s="4"/>
+      <c r="C703" s="6"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
@@ -35451,7 +35454,7 @@
     <row r="704" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
-      <c r="C704" s="4"/>
+      <c r="C704" s="6"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
@@ -35465,7 +35468,7 @@
     <row r="705" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
-      <c r="C705" s="4"/>
+      <c r="C705" s="6"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
@@ -35479,7 +35482,7 @@
     <row r="706" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
-      <c r="C706" s="4"/>
+      <c r="C706" s="6"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
@@ -35493,7 +35496,7 @@
     <row r="707" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
-      <c r="C707" s="4"/>
+      <c r="C707" s="6"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
@@ -35507,7 +35510,7 @@
     <row r="708" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
-      <c r="C708" s="4"/>
+      <c r="C708" s="6"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
@@ -35521,7 +35524,7 @@
     <row r="709" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
-      <c r="C709" s="4"/>
+      <c r="C709" s="6"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
@@ -35535,7 +35538,7 @@
     <row r="710" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
-      <c r="C710" s="4"/>
+      <c r="C710" s="6"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
@@ -35549,7 +35552,7 @@
     <row r="711" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
-      <c r="C711" s="4"/>
+      <c r="C711" s="6"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
@@ -35563,7 +35566,7 @@
     <row r="712" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
-      <c r="C712" s="4"/>
+      <c r="C712" s="6"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
@@ -35577,7 +35580,7 @@
     <row r="713" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
-      <c r="C713" s="4"/>
+      <c r="C713" s="6"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
@@ -35591,7 +35594,7 @@
     <row r="714" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
-      <c r="C714" s="4"/>
+      <c r="C714" s="6"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
@@ -35605,7 +35608,7 @@
     <row r="715" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
-      <c r="C715" s="4"/>
+      <c r="C715" s="6"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
@@ -35619,7 +35622,7 @@
     <row r="716" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
-      <c r="C716" s="4"/>
+      <c r="C716" s="6"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
@@ -35633,7 +35636,7 @@
     <row r="717" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
-      <c r="C717" s="4"/>
+      <c r="C717" s="6"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
@@ -35647,7 +35650,7 @@
     <row r="718" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
-      <c r="C718" s="4"/>
+      <c r="C718" s="6"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
@@ -35661,7 +35664,7 @@
     <row r="719" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
-      <c r="C719" s="4"/>
+      <c r="C719" s="6"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
@@ -35675,7 +35678,7 @@
     <row r="720" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
-      <c r="C720" s="4"/>
+      <c r="C720" s="6"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
@@ -35689,7 +35692,7 @@
     <row r="721" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
-      <c r="C721" s="4"/>
+      <c r="C721" s="6"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
@@ -35703,7 +35706,7 @@
     <row r="722" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
-      <c r="C722" s="4"/>
+      <c r="C722" s="6"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
@@ -35717,7 +35720,7 @@
     <row r="723" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
-      <c r="C723" s="4"/>
+      <c r="C723" s="6"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
@@ -35731,7 +35734,7 @@
     <row r="724" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
-      <c r="C724" s="4"/>
+      <c r="C724" s="6"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
@@ -35745,7 +35748,7 @@
     <row r="725" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
-      <c r="C725" s="4"/>
+      <c r="C725" s="6"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
@@ -35759,7 +35762,7 @@
     <row r="726" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
-      <c r="C726" s="4"/>
+      <c r="C726" s="6"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
@@ -35773,7 +35776,7 @@
     <row r="727" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
-      <c r="C727" s="4"/>
+      <c r="C727" s="6"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
@@ -35787,7 +35790,7 @@
     <row r="728" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
-      <c r="C728" s="4"/>
+      <c r="C728" s="6"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
@@ -35801,7 +35804,7 @@
     <row r="729" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
-      <c r="C729" s="4"/>
+      <c r="C729" s="6"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
@@ -35815,7 +35818,7 @@
     <row r="730" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
-      <c r="C730" s="4"/>
+      <c r="C730" s="6"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
@@ -35829,7 +35832,7 @@
     <row r="731" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
-      <c r="C731" s="4"/>
+      <c r="C731" s="6"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
@@ -35843,7 +35846,7 @@
     <row r="732" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
-      <c r="C732" s="4"/>
+      <c r="C732" s="6"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
@@ -35857,7 +35860,7 @@
     <row r="733" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
-      <c r="C733" s="4"/>
+      <c r="C733" s="6"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
@@ -35871,7 +35874,7 @@
     <row r="734" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
-      <c r="C734" s="4"/>
+      <c r="C734" s="6"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
@@ -35885,7 +35888,7 @@
     <row r="735" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
-      <c r="C735" s="4"/>
+      <c r="C735" s="6"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
@@ -35899,7 +35902,7 @@
     <row r="736" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
-      <c r="C736" s="4"/>
+      <c r="C736" s="6"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
@@ -35913,7 +35916,7 @@
     <row r="737" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
-      <c r="C737" s="4"/>
+      <c r="C737" s="6"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
@@ -35927,7 +35930,7 @@
     <row r="738" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
-      <c r="C738" s="4"/>
+      <c r="C738" s="6"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
@@ -35941,7 +35944,7 @@
     <row r="739" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
-      <c r="C739" s="4"/>
+      <c r="C739" s="6"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
@@ -35955,7 +35958,7 @@
     <row r="740" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
-      <c r="C740" s="4"/>
+      <c r="C740" s="6"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
@@ -35969,7 +35972,7 @@
     <row r="741" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
-      <c r="C741" s="4"/>
+      <c r="C741" s="6"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
@@ -35983,7 +35986,7 @@
     <row r="742" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
-      <c r="C742" s="4"/>
+      <c r="C742" s="6"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
@@ -35997,7 +36000,7 @@
     <row r="743" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
-      <c r="C743" s="4"/>
+      <c r="C743" s="6"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
@@ -36011,7 +36014,7 @@
     <row r="744" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
-      <c r="C744" s="4"/>
+      <c r="C744" s="6"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
@@ -36025,7 +36028,7 @@
     <row r="745" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
-      <c r="C745" s="4"/>
+      <c r="C745" s="6"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
@@ -36039,7 +36042,7 @@
     <row r="746" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
-      <c r="C746" s="4"/>
+      <c r="C746" s="6"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
@@ -36053,7 +36056,7 @@
     <row r="747" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
-      <c r="C747" s="4"/>
+      <c r="C747" s="6"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
@@ -36067,7 +36070,7 @@
     <row r="748" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
-      <c r="C748" s="4"/>
+      <c r="C748" s="6"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
@@ -36081,7 +36084,7 @@
     <row r="749" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
-      <c r="C749" s="4"/>
+      <c r="C749" s="6"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
@@ -36095,7 +36098,7 @@
     <row r="750" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
-      <c r="C750" s="4"/>
+      <c r="C750" s="6"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
@@ -36109,7 +36112,7 @@
     <row r="751" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
-      <c r="C751" s="4"/>
+      <c r="C751" s="6"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
@@ -36123,7 +36126,7 @@
     <row r="752" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
-      <c r="C752" s="4"/>
+      <c r="C752" s="6"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
@@ -36137,7 +36140,7 @@
     <row r="753" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
-      <c r="C753" s="4"/>
+      <c r="C753" s="6"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
@@ -36151,7 +36154,7 @@
     <row r="754" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
-      <c r="C754" s="4"/>
+      <c r="C754" s="6"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
@@ -36165,7 +36168,7 @@
     <row r="755" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
-      <c r="C755" s="4"/>
+      <c r="C755" s="6"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
@@ -36179,7 +36182,7 @@
     <row r="756" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
-      <c r="C756" s="4"/>
+      <c r="C756" s="6"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
@@ -36193,7 +36196,7 @@
     <row r="757" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
-      <c r="C757" s="4"/>
+      <c r="C757" s="6"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
@@ -36207,7 +36210,7 @@
     <row r="758" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
-      <c r="C758" s="4"/>
+      <c r="C758" s="6"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
@@ -36221,7 +36224,7 @@
     <row r="759" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
-      <c r="C759" s="4"/>
+      <c r="C759" s="6"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
@@ -36235,7 +36238,7 @@
     <row r="760" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
-      <c r="C760" s="4"/>
+      <c r="C760" s="6"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
@@ -36249,7 +36252,7 @@
     <row r="761" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
-      <c r="C761" s="4"/>
+      <c r="C761" s="6"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
@@ -36263,7 +36266,7 @@
     <row r="762" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
-      <c r="C762" s="4"/>
+      <c r="C762" s="6"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
@@ -36277,7 +36280,7 @@
     <row r="763" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
-      <c r="C763" s="4"/>
+      <c r="C763" s="6"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
@@ -36291,7 +36294,7 @@
     <row r="764" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
-      <c r="C764" s="4"/>
+      <c r="C764" s="6"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
@@ -36305,7 +36308,7 @@
     <row r="765" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
-      <c r="C765" s="4"/>
+      <c r="C765" s="6"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
@@ -36319,7 +36322,7 @@
     <row r="766" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
-      <c r="C766" s="4"/>
+      <c r="C766" s="6"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
@@ -36333,7 +36336,7 @@
     <row r="767" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
-      <c r="C767" s="4"/>
+      <c r="C767" s="6"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
@@ -36347,7 +36350,7 @@
     <row r="768" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
-      <c r="C768" s="4"/>
+      <c r="C768" s="6"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
@@ -36361,7 +36364,7 @@
     <row r="769" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
-      <c r="C769" s="4"/>
+      <c r="C769" s="6"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
@@ -36375,7 +36378,7 @@
     <row r="770" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
-      <c r="C770" s="4"/>
+      <c r="C770" s="6"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
@@ -36389,7 +36392,7 @@
     <row r="771" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
-      <c r="C771" s="4"/>
+      <c r="C771" s="6"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
@@ -36403,7 +36406,7 @@
     <row r="772" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
-      <c r="C772" s="4"/>
+      <c r="C772" s="6"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
@@ -36417,7 +36420,7 @@
     <row r="773" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
-      <c r="C773" s="4"/>
+      <c r="C773" s="6"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
@@ -36431,7 +36434,7 @@
     <row r="774" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
-      <c r="C774" s="4"/>
+      <c r="C774" s="6"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
@@ -36445,7 +36448,7 @@
     <row r="775" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
-      <c r="C775" s="4"/>
+      <c r="C775" s="6"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
@@ -36459,7 +36462,7 @@
     <row r="776" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
-      <c r="C776" s="4"/>
+      <c r="C776" s="6"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
@@ -36473,7 +36476,7 @@
     <row r="777" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
-      <c r="C777" s="4"/>
+      <c r="C777" s="6"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
@@ -36487,7 +36490,7 @@
     <row r="778" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
-      <c r="C778" s="4"/>
+      <c r="C778" s="6"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
@@ -36501,7 +36504,7 @@
     <row r="779" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
-      <c r="C779" s="4"/>
+      <c r="C779" s="6"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
@@ -36515,7 +36518,7 @@
     <row r="780" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
-      <c r="C780" s="4"/>
+      <c r="C780" s="6"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
@@ -36529,7 +36532,7 @@
     <row r="781" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
-      <c r="C781" s="4"/>
+      <c r="C781" s="6"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
@@ -36543,7 +36546,7 @@
     <row r="782" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
-      <c r="C782" s="4"/>
+      <c r="C782" s="6"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
@@ -36557,7 +36560,7 @@
     <row r="783" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
-      <c r="C783" s="4"/>
+      <c r="C783" s="6"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
@@ -36571,7 +36574,7 @@
     <row r="784" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
-      <c r="C784" s="4"/>
+      <c r="C784" s="6"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
@@ -36585,7 +36588,7 @@
     <row r="785" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
-      <c r="C785" s="4"/>
+      <c r="C785" s="6"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
@@ -36599,7 +36602,7 @@
     <row r="786" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
-      <c r="C786" s="4"/>
+      <c r="C786" s="6"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
@@ -36613,7 +36616,7 @@
     <row r="787" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
-      <c r="C787" s="4"/>
+      <c r="C787" s="6"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
@@ -36627,7 +36630,7 @@
     <row r="788" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
-      <c r="C788" s="4"/>
+      <c r="C788" s="6"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
@@ -36641,7 +36644,7 @@
     <row r="789" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
-      <c r="C789" s="4"/>
+      <c r="C789" s="6"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
@@ -36655,7 +36658,7 @@
     <row r="790" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
-      <c r="C790" s="4"/>
+      <c r="C790" s="6"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
@@ -36669,7 +36672,7 @@
     <row r="791" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
-      <c r="C791" s="4"/>
+      <c r="C791" s="6"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
@@ -36683,7 +36686,7 @@
     <row r="792" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
-      <c r="C792" s="4"/>
+      <c r="C792" s="6"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
@@ -36697,7 +36700,7 @@
     <row r="793" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
-      <c r="C793" s="4"/>
+      <c r="C793" s="6"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
@@ -36711,7 +36714,7 @@
     <row r="794" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
-      <c r="C794" s="4"/>
+      <c r="C794" s="6"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
@@ -36725,7 +36728,7 @@
     <row r="795" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
-      <c r="C795" s="4"/>
+      <c r="C795" s="6"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
@@ -36739,7 +36742,7 @@
     <row r="796" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
-      <c r="C796" s="4"/>
+      <c r="C796" s="6"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
@@ -36753,7 +36756,7 @@
     <row r="797" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
-      <c r="C797" s="4"/>
+      <c r="C797" s="6"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
@@ -36767,7 +36770,7 @@
     <row r="798" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
-      <c r="C798" s="4"/>
+      <c r="C798" s="6"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
@@ -36781,7 +36784,7 @@
     <row r="799" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
-      <c r="C799" s="4"/>
+      <c r="C799" s="6"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
@@ -36795,7 +36798,7 @@
     <row r="800" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
-      <c r="C800" s="4"/>
+      <c r="C800" s="6"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
@@ -36809,7 +36812,7 @@
     <row r="801" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
-      <c r="C801" s="4"/>
+      <c r="C801" s="6"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
@@ -36823,7 +36826,7 @@
     <row r="802" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
-      <c r="C802" s="4"/>
+      <c r="C802" s="6"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
@@ -36837,7 +36840,7 @@
     <row r="803" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
-      <c r="C803" s="4"/>
+      <c r="C803" s="6"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
@@ -36851,7 +36854,7 @@
     <row r="804" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
-      <c r="C804" s="4"/>
+      <c r="C804" s="6"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
@@ -36865,7 +36868,7 @@
     <row r="805" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
-      <c r="C805" s="4"/>
+      <c r="C805" s="6"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
@@ -36879,7 +36882,7 @@
     <row r="806" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
-      <c r="C806" s="4"/>
+      <c r="C806" s="6"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
@@ -36893,7 +36896,7 @@
     <row r="807" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
-      <c r="C807" s="4"/>
+      <c r="C807" s="6"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
@@ -36907,7 +36910,7 @@
     <row r="808" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
-      <c r="C808" s="4"/>
+      <c r="C808" s="6"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
@@ -36921,7 +36924,7 @@
     <row r="809" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
-      <c r="C809" s="4"/>
+      <c r="C809" s="6"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
@@ -36935,7 +36938,7 @@
     <row r="810" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
-      <c r="C810" s="4"/>
+      <c r="C810" s="6"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
@@ -36949,7 +36952,7 @@
     <row r="811" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
-      <c r="C811" s="4"/>
+      <c r="C811" s="6"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
@@ -36963,7 +36966,7 @@
     <row r="812" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
-      <c r="C812" s="4"/>
+      <c r="C812" s="6"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
@@ -36977,7 +36980,7 @@
     <row r="813" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
-      <c r="C813" s="4"/>
+      <c r="C813" s="6"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
@@ -36991,7 +36994,7 @@
     <row r="814" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
-      <c r="C814" s="4"/>
+      <c r="C814" s="6"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
@@ -37005,7 +37008,7 @@
     <row r="815" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
-      <c r="C815" s="4"/>
+      <c r="C815" s="6"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
@@ -37019,7 +37022,7 @@
     <row r="816" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
-      <c r="C816" s="4"/>
+      <c r="C816" s="6"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
@@ -37033,7 +37036,7 @@
     <row r="817" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
-      <c r="C817" s="4"/>
+      <c r="C817" s="6"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
@@ -37047,7 +37050,7 @@
     <row r="818" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
-      <c r="C818" s="4"/>
+      <c r="C818" s="6"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
@@ -37061,7 +37064,7 @@
     <row r="819" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
-      <c r="C819" s="4"/>
+      <c r="C819" s="6"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
@@ -37075,7 +37078,7 @@
     <row r="820" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
-      <c r="C820" s="4"/>
+      <c r="C820" s="6"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
@@ -37089,7 +37092,7 @@
     <row r="821" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
-      <c r="C821" s="4"/>
+      <c r="C821" s="6"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
@@ -37103,7 +37106,7 @@
     <row r="822" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
-      <c r="C822" s="4"/>
+      <c r="C822" s="6"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
@@ -37117,7 +37120,7 @@
     <row r="823" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
-      <c r="C823" s="4"/>
+      <c r="C823" s="6"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
@@ -37131,7 +37134,7 @@
     <row r="824" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
-      <c r="C824" s="4"/>
+      <c r="C824" s="6"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
@@ -37145,7 +37148,7 @@
     <row r="825" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
-      <c r="C825" s="4"/>
+      <c r="C825" s="6"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
@@ -37159,7 +37162,7 @@
     <row r="826" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
-      <c r="C826" s="4"/>
+      <c r="C826" s="6"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
@@ -37173,7 +37176,7 @@
     <row r="827" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
-      <c r="C827" s="4"/>
+      <c r="C827" s="6"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
@@ -37187,7 +37190,7 @@
     <row r="828" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
-      <c r="C828" s="4"/>
+      <c r="C828" s="6"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
@@ -37201,7 +37204,7 @@
     <row r="829" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
-      <c r="C829" s="4"/>
+      <c r="C829" s="6"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
@@ -37215,7 +37218,7 @@
     <row r="830" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
-      <c r="C830" s="4"/>
+      <c r="C830" s="6"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
@@ -37229,7 +37232,7 @@
     <row r="831" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
-      <c r="C831" s="4"/>
+      <c r="C831" s="6"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
@@ -37243,7 +37246,7 @@
     <row r="832" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
-      <c r="C832" s="4"/>
+      <c r="C832" s="6"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
@@ -37257,7 +37260,7 @@
     <row r="833" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
-      <c r="C833" s="4"/>
+      <c r="C833" s="6"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
@@ -37271,7 +37274,7 @@
     <row r="834" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
-      <c r="C834" s="4"/>
+      <c r="C834" s="6"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
@@ -37285,7 +37288,7 @@
     <row r="835" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
-      <c r="C835" s="4"/>
+      <c r="C835" s="6"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
@@ -37298,6 +37301,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43599,7 +43603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/app/database/seeds/seed_files/masterfile2.xlsx
+++ b/app/database/seeds/seed_files/masterfile2.xlsx
@@ -6238,7 +6238,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/database/seeds/seed_files/masterfile2.xlsx
+++ b/app/database/seeds/seed_files/masterfile2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="activity_grouping" sheetId="11" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="users" sheetId="8" r:id="rId7"/>
     <sheet name="objective" sheetId="9" r:id="rId8"/>
     <sheet name="source" sheetId="10" r:id="rId9"/>
+    <sheet name="scope" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">sku!$A$1:$L$835</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="1915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4216" uniqueCount="1920">
   <si>
     <t>activity_type_code</t>
   </si>
@@ -5771,6 +5772,21 @@
   </si>
   <si>
     <t>STICKERING</t>
+  </si>
+  <si>
+    <t>objective_id</t>
+  </si>
+  <si>
+    <t>scope_id</t>
+  </si>
+  <si>
+    <t>CUSTOMIZED</t>
+  </si>
+  <si>
+    <t>NATIONAL</t>
+  </si>
+  <si>
+    <t>scope</t>
   </si>
 </sst>
 </file>
@@ -6233,11 +6249,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -43733,62 +43791,94 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>1898</v>
       </c>
     </row>

--- a/app/database/seeds/seed_files/masterfile2.xlsx
+++ b/app/database/seeds/seed_files/masterfile2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="activity_grouping" sheetId="11" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="objective" sheetId="9" r:id="rId8"/>
     <sheet name="source" sheetId="10" r:id="rId9"/>
     <sheet name="scope" sheetId="12" r:id="rId10"/>
+    <sheet name="cycles" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">sku!$A$1:$L$835</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4216" uniqueCount="1920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="1946">
   <si>
     <t>activity_type_code</t>
   </si>
@@ -5787,13 +5788,91 @@
   </si>
   <si>
     <t>scope</t>
+  </si>
+  <si>
+    <t>JUNE 2015</t>
+  </si>
+  <si>
+    <t>JUNE 2015 EMGY</t>
+  </si>
+  <si>
+    <t>JULY 2015</t>
+  </si>
+  <si>
+    <t>JULY 2015 EMGY</t>
+  </si>
+  <si>
+    <t>AUG 2015</t>
+  </si>
+  <si>
+    <t>AUG 2015 EMGY</t>
+  </si>
+  <si>
+    <t>SEP 2015</t>
+  </si>
+  <si>
+    <t>SEP 2015 EMGY</t>
+  </si>
+  <si>
+    <t>OCT 2015</t>
+  </si>
+  <si>
+    <t>OCT 2015 EMGY</t>
+  </si>
+  <si>
+    <t>NOV 2015</t>
+  </si>
+  <si>
+    <t>NOV 2015 EMGY</t>
+  </si>
+  <si>
+    <t>DEC 2015</t>
+  </si>
+  <si>
+    <t>DEC 2015 EMGY</t>
+  </si>
+  <si>
+    <t>JAN 2016</t>
+  </si>
+  <si>
+    <t>JAN 2016 EMGY</t>
+  </si>
+  <si>
+    <t>FEB 2016</t>
+  </si>
+  <si>
+    <t>FEB 2016 EMGY</t>
+  </si>
+  <si>
+    <t>MAR 2016</t>
+  </si>
+  <si>
+    <t>MAR 2016 EMGY</t>
+  </si>
+  <si>
+    <t>cycle_name</t>
+  </si>
+  <si>
+    <t>month_year</t>
+  </si>
+  <si>
+    <t>submission_deadline</t>
+  </si>
+  <si>
+    <t>approval_deadline</t>
+  </si>
+  <si>
+    <t>pdf_deadline</t>
+  </si>
+  <si>
+    <t>release_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5823,6 +5902,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5872,7 +5958,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5893,6 +5979,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6253,7 +6343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6285,6 +6375,549 @@
       <c r="B3" t="s">
         <v>1918</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B2" s="15">
+        <v>42156</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42114</v>
+      </c>
+      <c r="D2" s="16">
+        <v>42118</v>
+      </c>
+      <c r="E2" s="16">
+        <v>42122</v>
+      </c>
+      <c r="F2" s="16">
+        <v>42128</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B3" s="15">
+        <v>42156</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42128</v>
+      </c>
+      <c r="D3" s="16">
+        <v>42132</v>
+      </c>
+      <c r="E3" s="16">
+        <v>42136</v>
+      </c>
+      <c r="F3" s="16">
+        <v>42142</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B4" s="15">
+        <v>42186</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42142</v>
+      </c>
+      <c r="D4" s="16">
+        <v>42149</v>
+      </c>
+      <c r="E4" s="16">
+        <v>42152</v>
+      </c>
+      <c r="F4" s="16">
+        <v>42156</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B5" s="15">
+        <v>42186</v>
+      </c>
+      <c r="C5" s="16">
+        <v>42156</v>
+      </c>
+      <c r="D5" s="16">
+        <v>42163</v>
+      </c>
+      <c r="E5" s="16">
+        <v>42166</v>
+      </c>
+      <c r="F5" s="16">
+        <v>42170</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B6" s="15">
+        <v>42217</v>
+      </c>
+      <c r="C6" s="16">
+        <v>42177</v>
+      </c>
+      <c r="D6" s="16">
+        <v>42184</v>
+      </c>
+      <c r="E6" s="16">
+        <v>42187</v>
+      </c>
+      <c r="F6" s="16">
+        <v>42191</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42217</v>
+      </c>
+      <c r="C7" s="16">
+        <v>42191</v>
+      </c>
+      <c r="D7" s="16">
+        <v>42198</v>
+      </c>
+      <c r="E7" s="16">
+        <v>42201</v>
+      </c>
+      <c r="F7" s="16">
+        <v>42205</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B8" s="15">
+        <v>42248</v>
+      </c>
+      <c r="C8" s="16">
+        <v>42205</v>
+      </c>
+      <c r="D8" s="16">
+        <v>42212</v>
+      </c>
+      <c r="E8" s="16">
+        <v>42215</v>
+      </c>
+      <c r="F8" s="16">
+        <v>42219</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B9" s="15">
+        <v>42248</v>
+      </c>
+      <c r="C9" s="16">
+        <v>42219</v>
+      </c>
+      <c r="D9" s="16">
+        <v>42226</v>
+      </c>
+      <c r="E9" s="16">
+        <v>42229</v>
+      </c>
+      <c r="F9" s="16">
+        <v>42233</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B10" s="15">
+        <v>42278</v>
+      </c>
+      <c r="C10" s="16">
+        <v>42233</v>
+      </c>
+      <c r="D10" s="16">
+        <v>42240</v>
+      </c>
+      <c r="E10" s="16">
+        <v>42243</v>
+      </c>
+      <c r="F10" s="16">
+        <v>42247</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B11" s="15">
+        <v>42278</v>
+      </c>
+      <c r="C11" s="16">
+        <v>42247</v>
+      </c>
+      <c r="D11" s="16">
+        <v>42254</v>
+      </c>
+      <c r="E11" s="16">
+        <v>42257</v>
+      </c>
+      <c r="F11" s="16">
+        <v>42261</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B12" s="15">
+        <v>42309</v>
+      </c>
+      <c r="C12" s="16">
+        <v>42261</v>
+      </c>
+      <c r="D12" s="16">
+        <v>42268</v>
+      </c>
+      <c r="E12" s="16">
+        <v>42271</v>
+      </c>
+      <c r="F12" s="16">
+        <v>42275</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B13" s="15">
+        <v>42309</v>
+      </c>
+      <c r="C13" s="16">
+        <v>42275</v>
+      </c>
+      <c r="D13" s="16">
+        <v>42282</v>
+      </c>
+      <c r="E13" s="16">
+        <v>42285</v>
+      </c>
+      <c r="F13" s="16">
+        <v>42289</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B14" s="15">
+        <v>42339</v>
+      </c>
+      <c r="C14" s="16">
+        <v>42261</v>
+      </c>
+      <c r="D14" s="16">
+        <v>42268</v>
+      </c>
+      <c r="E14" s="16">
+        <v>42271</v>
+      </c>
+      <c r="F14" s="16">
+        <v>42275</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B15" s="15">
+        <v>42339</v>
+      </c>
+      <c r="C15" s="16">
+        <v>42275</v>
+      </c>
+      <c r="D15" s="16">
+        <v>42282</v>
+      </c>
+      <c r="E15" s="16">
+        <v>42285</v>
+      </c>
+      <c r="F15" s="16">
+        <v>42289</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B16" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C16" s="16">
+        <v>42324</v>
+      </c>
+      <c r="D16" s="16">
+        <v>42331</v>
+      </c>
+      <c r="E16" s="16">
+        <v>42334</v>
+      </c>
+      <c r="F16" s="16">
+        <v>42338</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B17" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C17" s="16">
+        <v>42338</v>
+      </c>
+      <c r="D17" s="16">
+        <v>42345</v>
+      </c>
+      <c r="E17" s="16">
+        <v>42348</v>
+      </c>
+      <c r="F17" s="16">
+        <v>42352</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B18" s="15">
+        <v>42401</v>
+      </c>
+      <c r="C18" s="16">
+        <v>42324</v>
+      </c>
+      <c r="D18" s="16">
+        <v>42331</v>
+      </c>
+      <c r="E18" s="16">
+        <v>42334</v>
+      </c>
+      <c r="F18" s="16">
+        <v>42338</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B19" s="15">
+        <v>42401</v>
+      </c>
+      <c r="C19" s="16">
+        <v>42338</v>
+      </c>
+      <c r="D19" s="16">
+        <v>42345</v>
+      </c>
+      <c r="E19" s="16">
+        <v>42348</v>
+      </c>
+      <c r="F19" s="16">
+        <v>42352</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B20" s="15">
+        <v>42430</v>
+      </c>
+      <c r="C20" s="16">
+        <v>42387</v>
+      </c>
+      <c r="D20" s="16">
+        <v>42394</v>
+      </c>
+      <c r="E20" s="16">
+        <v>42397</v>
+      </c>
+      <c r="F20" s="16">
+        <v>42401</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B21" s="15">
+        <v>42430</v>
+      </c>
+      <c r="C21" s="16">
+        <v>42401</v>
+      </c>
+      <c r="D21" s="16">
+        <v>42408</v>
+      </c>
+      <c r="E21" s="16">
+        <v>42411</v>
+      </c>
+      <c r="F21" s="16">
+        <v>42415</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/database/seeds/seed_files/masterfile2.xlsx
+++ b/app/database/seeds/seed_files/masterfile2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1948">
   <si>
     <t>activity_type_code</t>
   </si>
@@ -5866,12 +5866,21 @@
   </si>
   <si>
     <t>release_date</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>implemintation_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5958,7 +5967,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5980,10 +5989,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6383,544 +6414,612 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>1940</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="22" t="s">
         <v>1941</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>1942</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>1943</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>1944</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="G1" s="19" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>1920</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="23">
         <v>42156</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="21">
         <v>42114</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="21">
         <v>42118</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="21">
         <v>42122</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="21">
         <v>42128</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="G2" s="21">
+        <v>42128</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>1921</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="23">
         <v>42156</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="21">
         <v>42128</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="21">
         <v>42132</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="21">
         <v>42136</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="21">
         <v>42142</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="21">
+        <v>42142</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>1922</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="23">
         <v>42186</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="21">
         <v>42142</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="21">
         <v>42149</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="21">
         <v>42152</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="21">
         <v>42156</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="21">
+        <v>42156</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>1923</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="23">
         <v>42186</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="21">
         <v>42156</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="21">
         <v>42163</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="21">
         <v>42166</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="21">
         <v>42170</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="21">
+        <v>42170</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>1924</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="23">
         <v>42217</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="21">
         <v>42177</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="21">
         <v>42184</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="21">
         <v>42187</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="21">
         <v>42191</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="21">
+        <v>42191</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>1925</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="23">
         <v>42217</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="21">
         <v>42191</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="21">
         <v>42198</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="21">
         <v>42201</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="21">
         <v>42205</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="21">
+        <v>42205</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>1926</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="23">
         <v>42248</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="21">
         <v>42205</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="21">
         <v>42212</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="21">
         <v>42215</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="21">
         <v>42219</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="21">
+        <v>42219</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>1927</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="23">
         <v>42248</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="21">
         <v>42219</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="21">
         <v>42226</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="21">
         <v>42229</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="21">
         <v>42233</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="21">
+        <v>42233</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>1928</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="23">
         <v>42278</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="21">
         <v>42233</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="21">
         <v>42240</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="21">
         <v>42243</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="21">
         <v>42247</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="21">
+        <v>42247</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>1929</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="23">
         <v>42278</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="21">
         <v>42247</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="21">
         <v>42254</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="21">
         <v>42257</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="21">
         <v>42261</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="21">
+        <v>42261</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>1930</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="23">
         <v>42309</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="21">
         <v>42261</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="21">
         <v>42268</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="21">
         <v>42271</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="21">
         <v>42275</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="G12" s="21">
+        <v>42275</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>1931</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="23">
         <v>42309</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="21">
         <v>42275</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="21">
         <v>42282</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="21">
         <v>42285</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="21">
         <v>42289</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="21">
+        <v>42289</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>1932</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="23">
         <v>42339</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="21">
         <v>42261</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="21">
         <v>42268</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="21">
         <v>42271</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="21">
         <v>42275</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="G14" s="21">
+        <v>42275</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>1933</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="23">
         <v>42339</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="21">
         <v>42275</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="21">
         <v>42282</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="21">
         <v>42285</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="21">
         <v>42289</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="21">
+        <v>42289</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>1934</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="23">
         <v>42370</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="21">
         <v>42324</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="21">
         <v>42331</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="21">
         <v>42334</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="21">
         <v>42338</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="G16" s="21">
+        <v>42338</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>1935</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="23">
         <v>42370</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="21">
         <v>42338</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="21">
         <v>42345</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="21">
         <v>42348</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="21">
         <v>42352</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="21">
+        <v>42352</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>1936</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="23">
         <v>42401</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="21">
         <v>42324</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="21">
         <v>42331</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="21">
         <v>42334</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="21">
         <v>42338</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="G18" s="21">
+        <v>42338</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>1937</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="23">
         <v>42401</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="21">
         <v>42338</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="21">
         <v>42345</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="21">
         <v>42348</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="21">
         <v>42352</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="21">
+        <v>42352</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>1938</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="23">
         <v>42430</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="21">
         <v>42387</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="21">
         <v>42394</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="21">
         <v>42397</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="21">
         <v>42401</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="G20" s="21">
+        <v>42401</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>1939</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="23">
         <v>42430</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="21">
         <v>42401</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="21">
         <v>42408</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="21">
         <v>42411</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="21">
         <v>42415</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="21">
+        <v>42415</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/app/database/seeds/seed_files/masterfile2.xlsx
+++ b/app/database/seeds/seed_files/masterfile2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="activity_grouping" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4261" uniqueCount="1953">
   <si>
     <t>activity_type_code</t>
   </si>
@@ -5872,6 +5872,21 @@
   </si>
   <si>
     <t>implemintation_date</t>
+  </si>
+  <si>
+    <t>LedesmaDenise-Alexandra</t>
+  </si>
+  <si>
+    <t>Denise-Alexandra.Ledesma@unilever.com</t>
+  </si>
+  <si>
+    <t>0908-880-5814</t>
+  </si>
+  <si>
+    <t>Denise-Alexandra</t>
+  </si>
+  <si>
+    <t>Ledesma</t>
   </si>
 </sst>
 </file>
@@ -5879,7 +5894,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -5967,7 +5982,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5998,14 +6013,14 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -6015,6 +6030,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6416,7 +6432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -38229,18 +38245,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G287"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="F288" sqref="F288:G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="13" bestFit="1" customWidth="1"/>
@@ -38253,7 +38269,7 @@
       <c r="B1" t="s">
         <v>1882</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>1883</v>
       </c>
       <c r="D1" t="s">
@@ -38276,7 +38292,7 @@
       <c r="B2" t="s">
         <v>643</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>644</v>
       </c>
       <c r="D2" t="s">
@@ -38299,7 +38315,7 @@
       <c r="B3" t="s">
         <v>649</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>650</v>
       </c>
       <c r="D3" t="s">
@@ -38339,7 +38355,7 @@
       <c r="B5" t="s">
         <v>658</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>659</v>
       </c>
       <c r="D5" t="s">
@@ -38382,7 +38398,7 @@
       <c r="B7" s="12" t="s">
         <v>1888</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>668</v>
       </c>
       <c r="D7" t="s">
@@ -38405,7 +38421,7 @@
       <c r="B8" t="s">
         <v>672</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>673</v>
       </c>
       <c r="D8" t="s">
@@ -38428,7 +38444,7 @@
       <c r="B9" t="s">
         <v>677</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="13" t="s">
         <v>678</v>
       </c>
       <c r="D9" t="s">
@@ -38451,7 +38467,7 @@
       <c r="B10" t="s">
         <v>682</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>683</v>
       </c>
       <c r="D10" t="s">
@@ -38474,7 +38490,7 @@
       <c r="B11" t="s">
         <v>687</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>688</v>
       </c>
       <c r="D11" t="s">
@@ -38517,7 +38533,7 @@
       <c r="B13" t="s">
         <v>695</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
         <v>696</v>
       </c>
       <c r="D13" t="s">
@@ -38557,7 +38573,7 @@
       <c r="B15" t="s">
         <v>704</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>705</v>
       </c>
       <c r="D15" t="s">
@@ -38597,7 +38613,7 @@
       <c r="B17" t="s">
         <v>713</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="13" t="s">
         <v>714</v>
       </c>
       <c r="D17" t="s">
@@ -38620,7 +38636,7 @@
       <c r="B18" t="s">
         <v>719</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="13" t="s">
         <v>720</v>
       </c>
       <c r="D18" t="s">
@@ -38643,7 +38659,7 @@
       <c r="B19" t="s">
         <v>723</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="13" t="s">
         <v>724</v>
       </c>
       <c r="D19" t="s">
@@ -38666,7 +38682,7 @@
       <c r="B20" t="s">
         <v>728</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="13" t="s">
         <v>729</v>
       </c>
       <c r="D20" t="s">
@@ -38689,7 +38705,7 @@
       <c r="B21" t="s">
         <v>732</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>733</v>
       </c>
       <c r="D21" t="s">
@@ -38732,7 +38748,7 @@
       <c r="B23" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="13" t="s">
         <v>742</v>
       </c>
       <c r="D23" t="s">
@@ -38755,7 +38771,7 @@
       <c r="B24" t="s">
         <v>746</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>747</v>
       </c>
       <c r="D24" t="s">
@@ -38778,7 +38794,7 @@
       <c r="B25" t="s">
         <v>751</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="13" t="s">
         <v>752</v>
       </c>
       <c r="D25" t="s">
@@ -38801,7 +38817,7 @@
       <c r="B26" t="s">
         <v>756</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="13" t="s">
         <v>757</v>
       </c>
       <c r="D26" t="s">
@@ -38844,7 +38860,7 @@
       <c r="B28" t="s">
         <v>765</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="13" t="s">
         <v>766</v>
       </c>
       <c r="D28" t="s">
@@ -38867,7 +38883,7 @@
       <c r="B29" t="s">
         <v>770</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="13" t="s">
         <v>771</v>
       </c>
       <c r="D29" t="s">
@@ -38890,7 +38906,7 @@
       <c r="B30" t="s">
         <v>775</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="13" t="s">
         <v>776</v>
       </c>
       <c r="D30" t="s">
@@ -38913,7 +38929,7 @@
       <c r="B31" t="s">
         <v>780</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="13" t="s">
         <v>781</v>
       </c>
       <c r="D31" t="s">
@@ -38936,7 +38952,7 @@
       <c r="B32" t="s">
         <v>785</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="13" t="s">
         <v>786</v>
       </c>
       <c r="D32" t="s">
@@ -38959,7 +38975,7 @@
       <c r="B33" t="s">
         <v>790</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="13" t="s">
         <v>791</v>
       </c>
       <c r="D33" t="s">
@@ -38982,7 +38998,7 @@
       <c r="B34" t="s">
         <v>795</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="13" t="s">
         <v>796</v>
       </c>
       <c r="D34" t="s">
@@ -39005,7 +39021,7 @@
       <c r="B35" t="s">
         <v>800</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="13" t="s">
         <v>801</v>
       </c>
       <c r="D35" t="s">
@@ -39028,7 +39044,7 @@
       <c r="B36" t="s">
         <v>804</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>805</v>
       </c>
       <c r="D36" t="s">
@@ -39051,7 +39067,7 @@
       <c r="B37" t="s">
         <v>808</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="13" t="s">
         <v>809</v>
       </c>
       <c r="D37" t="s">
@@ -39074,7 +39090,7 @@
       <c r="B38" t="s">
         <v>813</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="13" t="s">
         <v>814</v>
       </c>
       <c r="D38" t="s">
@@ -39097,7 +39113,7 @@
       <c r="B39" t="s">
         <v>818</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="13" t="s">
         <v>819</v>
       </c>
       <c r="D39" t="s">
@@ -39140,7 +39156,7 @@
       <c r="B41" t="s">
         <v>825</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="13" t="s">
         <v>826</v>
       </c>
       <c r="D41" t="s">
@@ -39163,7 +39179,7 @@
       <c r="B42" t="s">
         <v>830</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="13" t="s">
         <v>831</v>
       </c>
       <c r="D42" t="s">
@@ -39206,7 +39222,7 @@
       <c r="B44" t="s">
         <v>839</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="13" t="s">
         <v>840</v>
       </c>
       <c r="D44" t="s">
@@ -39229,7 +39245,7 @@
       <c r="B45" t="s">
         <v>844</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="13" t="s">
         <v>845</v>
       </c>
       <c r="D45" t="s">
@@ -39252,7 +39268,7 @@
       <c r="B46" t="s">
         <v>848</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="13" t="s">
         <v>849</v>
       </c>
       <c r="D46" t="s">
@@ -39323,9 +39339,6 @@
       <c r="A50" t="s">
         <v>860</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
       <c r="D50" t="s">
         <v>861</v>
       </c>
@@ -39346,7 +39359,7 @@
       <c r="B51" t="s">
         <v>863</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="13" t="s">
         <v>864</v>
       </c>
       <c r="D51" t="s">
@@ -39369,7 +39382,7 @@
       <c r="B52" t="s">
         <v>868</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="13" t="s">
         <v>869</v>
       </c>
       <c r="D52" t="s">
@@ -39392,7 +39405,7 @@
       <c r="B53" t="s">
         <v>873</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="13" t="s">
         <v>874</v>
       </c>
       <c r="D53" t="s">
@@ -39415,7 +39428,7 @@
       <c r="B54" t="s">
         <v>878</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="13" t="s">
         <v>879</v>
       </c>
       <c r="D54" t="s">
@@ -39438,7 +39451,7 @@
       <c r="B55" t="s">
         <v>883</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="13" t="s">
         <v>884</v>
       </c>
       <c r="D55" t="s">
@@ -39461,7 +39474,7 @@
       <c r="B56" t="s">
         <v>887</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="13" t="s">
         <v>888</v>
       </c>
       <c r="D56" t="s">
@@ -39484,7 +39497,7 @@
       <c r="B57" t="s">
         <v>892</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="13" t="s">
         <v>893</v>
       </c>
       <c r="D57" t="s">
@@ -39507,7 +39520,7 @@
       <c r="B58" t="s">
         <v>897</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="13" t="s">
         <v>898</v>
       </c>
       <c r="D58" t="s">
@@ -39530,7 +39543,7 @@
       <c r="B59" t="s">
         <v>902</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="13" t="s">
         <v>903</v>
       </c>
       <c r="D59" t="s">
@@ -39553,7 +39566,7 @@
       <c r="B60" t="s">
         <v>907</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="13" t="s">
         <v>908</v>
       </c>
       <c r="D60" t="s">
@@ -39610,7 +39623,7 @@
       <c r="B63" t="s">
         <v>917</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="13" t="s">
         <v>918</v>
       </c>
       <c r="D63" t="s">
@@ -39633,7 +39646,7 @@
       <c r="B64" t="s">
         <v>922</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="13" t="s">
         <v>923</v>
       </c>
       <c r="D64" t="s">
@@ -39673,7 +39686,7 @@
       <c r="B66" t="s">
         <v>930</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="13" t="s">
         <v>931</v>
       </c>
       <c r="D66" t="s">
@@ -39696,7 +39709,7 @@
       <c r="B67" t="s">
         <v>935</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="13" t="s">
         <v>936</v>
       </c>
       <c r="D67" t="s">
@@ -39719,7 +39732,7 @@
       <c r="B68" t="s">
         <v>940</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="13" t="s">
         <v>941</v>
       </c>
       <c r="D68" t="s">
@@ -39759,7 +39772,7 @@
       <c r="B70" t="s">
         <v>948</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="13" t="s">
         <v>949</v>
       </c>
       <c r="D70" t="s">
@@ -39782,7 +39795,7 @@
       <c r="B71" t="s">
         <v>953</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="13" t="s">
         <v>954</v>
       </c>
       <c r="D71" t="s">
@@ -39805,7 +39818,7 @@
       <c r="B72" t="s">
         <v>958</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="13" t="s">
         <v>959</v>
       </c>
       <c r="D72" t="s">
@@ -39828,7 +39841,7 @@
       <c r="B73" t="s">
         <v>963</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="13" t="s">
         <v>964</v>
       </c>
       <c r="D73" t="s">
@@ -39922,7 +39935,7 @@
       <c r="B78" t="s">
         <v>981</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="13" t="s">
         <v>982</v>
       </c>
       <c r="D78" t="s">
@@ -39945,7 +39958,7 @@
       <c r="B79" t="s">
         <v>986</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="13" t="s">
         <v>987</v>
       </c>
       <c r="D79" t="s">
@@ -39968,7 +39981,7 @@
       <c r="B80" t="s">
         <v>991</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="13" t="s">
         <v>992</v>
       </c>
       <c r="D80" t="s">
@@ -39991,7 +40004,7 @@
       <c r="B81" t="s">
         <v>995</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="13" t="s">
         <v>996</v>
       </c>
       <c r="D81" t="s">
@@ -40034,7 +40047,7 @@
       <c r="B83" t="s">
         <v>1004</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="13" t="s">
         <v>1005</v>
       </c>
       <c r="D83" t="s">
@@ -40057,7 +40070,7 @@
       <c r="B84" t="s">
         <v>1009</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="13" t="s">
         <v>1010</v>
       </c>
       <c r="D84" t="s">
@@ -40080,7 +40093,7 @@
       <c r="B85" t="s">
         <v>1014</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="D85" t="s">
@@ -40103,7 +40116,7 @@
       <c r="B86" t="s">
         <v>1019</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="13" t="s">
         <v>1020</v>
       </c>
       <c r="D86" t="s">
@@ -40143,7 +40156,7 @@
       <c r="B88" s="12" t="s">
         <v>1027</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="13" t="s">
         <v>1028</v>
       </c>
       <c r="D88" t="s">
@@ -40166,7 +40179,7 @@
       <c r="B89" t="s">
         <v>1032</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="13" t="s">
         <v>1033</v>
       </c>
       <c r="D89" t="s">
@@ -40189,7 +40202,7 @@
       <c r="B90" t="s">
         <v>1037</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="13" t="s">
         <v>1038</v>
       </c>
       <c r="D90" t="s">
@@ -40212,7 +40225,7 @@
       <c r="B91" t="s">
         <v>1042</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="13" t="s">
         <v>1043</v>
       </c>
       <c r="D91" t="s">
@@ -40235,7 +40248,7 @@
       <c r="B92" t="s">
         <v>1047</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="13" t="s">
         <v>1048</v>
       </c>
       <c r="D92" t="s">
@@ -40258,7 +40271,7 @@
       <c r="B93" t="s">
         <v>1052</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="13" t="s">
         <v>1053</v>
       </c>
       <c r="D93" t="s">
@@ -40281,7 +40294,7 @@
       <c r="B94" t="s">
         <v>1056</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="13" t="s">
         <v>1057</v>
       </c>
       <c r="D94" t="s">
@@ -40304,7 +40317,7 @@
       <c r="B95" t="s">
         <v>1061</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="13" t="s">
         <v>1062</v>
       </c>
       <c r="D95" t="s">
@@ -40327,7 +40340,7 @@
       <c r="B96" t="s">
         <v>1066</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="13" t="s">
         <v>1067</v>
       </c>
       <c r="D96" t="s">
@@ -40367,7 +40380,7 @@
       <c r="B98" t="s">
         <v>1073</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="13" t="s">
         <v>1074</v>
       </c>
       <c r="D98" t="s">
@@ -40390,7 +40403,7 @@
       <c r="B99" t="s">
         <v>1078</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="13" t="s">
         <v>1079</v>
       </c>
       <c r="D99" t="s">
@@ -40413,7 +40426,7 @@
       <c r="B100" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="13" t="s">
         <v>1084</v>
       </c>
       <c r="D100" t="s">
@@ -40456,7 +40469,7 @@
       <c r="B102" t="s">
         <v>1091</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="13" t="s">
         <v>1092</v>
       </c>
       <c r="D102" t="s">
@@ -40479,7 +40492,7 @@
       <c r="B103" t="s">
         <v>1096</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="13" t="s">
         <v>1097</v>
       </c>
       <c r="D103" t="s">
@@ -40502,7 +40515,7 @@
       <c r="B104" t="s">
         <v>1100</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="13" t="s">
         <v>1101</v>
       </c>
       <c r="D104" t="s">
@@ -40525,7 +40538,7 @@
       <c r="B105" t="s">
         <v>1105</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="13" t="s">
         <v>1106</v>
       </c>
       <c r="D105" t="s">
@@ -40545,7 +40558,7 @@
       <c r="A106" t="s">
         <v>1109</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="13">
         <v>0</v>
       </c>
       <c r="D106" t="s">
@@ -40582,7 +40595,7 @@
       <c r="B108" t="s">
         <v>1114</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="13" t="s">
         <v>1115</v>
       </c>
       <c r="D108" t="s">
@@ -40605,7 +40618,7 @@
       <c r="B109" t="s">
         <v>1119</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="13" t="s">
         <v>1120</v>
       </c>
       <c r="D109" t="s">
@@ -40628,7 +40641,7 @@
       <c r="B110" t="s">
         <v>1124</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="13" t="s">
         <v>1125</v>
       </c>
       <c r="D110" t="s">
@@ -40651,7 +40664,7 @@
       <c r="B111" t="s">
         <v>1129</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="13" t="s">
         <v>1130</v>
       </c>
       <c r="D111" t="s">
@@ -40674,7 +40687,7 @@
       <c r="B112" s="12" t="s">
         <v>1134</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="13" t="s">
         <v>1135</v>
       </c>
       <c r="D112" t="s">
@@ -40697,7 +40710,7 @@
       <c r="B113" t="s">
         <v>1139</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="13" t="s">
         <v>1140</v>
       </c>
       <c r="D113" t="s">
@@ -40737,7 +40750,7 @@
       <c r="B115" t="s">
         <v>1147</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="13" t="s">
         <v>1148</v>
       </c>
       <c r="D115" t="s">
@@ -40760,7 +40773,7 @@
       <c r="B116" t="s">
         <v>1152</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="13" t="s">
         <v>1153</v>
       </c>
       <c r="D116" t="s">
@@ -40783,7 +40796,7 @@
       <c r="B117" t="s">
         <v>1157</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="13" t="s">
         <v>1158</v>
       </c>
       <c r="D117" t="s">
@@ -40806,7 +40819,7 @@
       <c r="B118" t="s">
         <v>1162</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="13" t="s">
         <v>1163</v>
       </c>
       <c r="D118" t="s">
@@ -40846,7 +40859,7 @@
       <c r="B120" t="s">
         <v>1169</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="13" t="s">
         <v>1170</v>
       </c>
       <c r="D120" t="s">
@@ -40869,7 +40882,7 @@
       <c r="B121" t="s">
         <v>1174</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="13" t="s">
         <v>1175</v>
       </c>
       <c r="D121" t="s">
@@ -40892,7 +40905,7 @@
       <c r="B122" t="s">
         <v>1178</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="13" t="s">
         <v>1179</v>
       </c>
       <c r="D122" t="s">
@@ -40966,7 +40979,7 @@
       <c r="B126" t="s">
         <v>1191</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="13" t="s">
         <v>1192</v>
       </c>
       <c r="D126" t="s">
@@ -41026,7 +41039,7 @@
       <c r="B129" t="s">
         <v>1203</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="13" t="s">
         <v>1204</v>
       </c>
       <c r="D129" t="s">
@@ -41049,7 +41062,7 @@
       <c r="B130" t="s">
         <v>1208</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="13" t="s">
         <v>1209</v>
       </c>
       <c r="D130" t="s">
@@ -41089,7 +41102,7 @@
       <c r="B132" t="s">
         <v>1214</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="13" t="s">
         <v>1215</v>
       </c>
       <c r="D132" t="s">
@@ -41112,7 +41125,7 @@
       <c r="B133" t="s">
         <v>1218</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="13" t="s">
         <v>1219</v>
       </c>
       <c r="D133" t="s">
@@ -41135,7 +41148,7 @@
       <c r="B134" t="s">
         <v>1223</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="13" t="s">
         <v>1224</v>
       </c>
       <c r="D134" t="s">
@@ -41158,7 +41171,7 @@
       <c r="B135" t="s">
         <v>1228</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="13" t="s">
         <v>1229</v>
       </c>
       <c r="D135" t="s">
@@ -41181,7 +41194,7 @@
       <c r="B136" t="s">
         <v>1233</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="13" t="s">
         <v>1234</v>
       </c>
       <c r="D136" t="s">
@@ -41221,7 +41234,7 @@
       <c r="B138" t="s">
         <v>1241</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="13" t="s">
         <v>1242</v>
       </c>
       <c r="D138" t="s">
@@ -41264,7 +41277,7 @@
       <c r="B140" t="s">
         <v>1249</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="13" t="s">
         <v>1250</v>
       </c>
       <c r="D140" t="s">
@@ -41287,7 +41300,7 @@
       <c r="B141" t="s">
         <v>1253</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="13" t="s">
         <v>1254</v>
       </c>
       <c r="D141" t="s">
@@ -41310,7 +41323,7 @@
       <c r="B142" t="s">
         <v>1258</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="13" t="s">
         <v>1259</v>
       </c>
       <c r="D142" t="s">
@@ -41373,7 +41386,7 @@
       <c r="B145" t="s">
         <v>1269</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="13" t="s">
         <v>1270</v>
       </c>
       <c r="D145" t="s">
@@ -41413,7 +41426,7 @@
       <c r="B147" t="s">
         <v>1277</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="13" t="s">
         <v>1278</v>
       </c>
       <c r="D147" t="s">
@@ -41453,7 +41466,7 @@
       <c r="B149" t="s">
         <v>1285</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="13" t="s">
         <v>1286</v>
       </c>
       <c r="D149" t="s">
@@ -41493,7 +41506,7 @@
       <c r="B151" t="s">
         <v>1293</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="13" t="s">
         <v>1294</v>
       </c>
       <c r="D151" t="s">
@@ -41536,7 +41549,7 @@
       <c r="B153" t="s">
         <v>1302</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="13" t="s">
         <v>1303</v>
       </c>
       <c r="D153" t="s">
@@ -41559,7 +41572,7 @@
       <c r="B154" t="s">
         <v>1306</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="13" t="s">
         <v>1307</v>
       </c>
       <c r="D154" t="s">
@@ -41582,7 +41595,7 @@
       <c r="B155" t="s">
         <v>1310</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="13" t="s">
         <v>1311</v>
       </c>
       <c r="D155" t="s">
@@ -41605,7 +41618,7 @@
       <c r="B156" t="s">
         <v>1315</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="13" t="s">
         <v>1316</v>
       </c>
       <c r="D156" t="s">
@@ -41628,7 +41641,7 @@
       <c r="B157" t="s">
         <v>1320</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="13" t="s">
         <v>1321</v>
       </c>
       <c r="D157" t="s">
@@ -41668,7 +41681,7 @@
       <c r="B159" t="s">
         <v>1328</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="13" t="s">
         <v>1329</v>
       </c>
       <c r="D159" t="s">
@@ -41691,7 +41704,7 @@
       <c r="B160" t="s">
         <v>1333</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="13" t="s">
         <v>1334</v>
       </c>
       <c r="D160" t="s">
@@ -41714,7 +41727,7 @@
       <c r="B161" t="s">
         <v>1337</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="13" t="s">
         <v>1338</v>
       </c>
       <c r="D161" t="s">
@@ -41737,7 +41750,7 @@
       <c r="B162" t="s">
         <v>1342</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="13" t="s">
         <v>1343</v>
       </c>
       <c r="D162" t="s">
@@ -41794,7 +41807,7 @@
       <c r="B165" t="s">
         <v>1353</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="13" t="s">
         <v>1354</v>
       </c>
       <c r="D165" t="s">
@@ -41854,7 +41867,7 @@
       <c r="B168" t="s">
         <v>1364</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="13" t="s">
         <v>1365</v>
       </c>
       <c r="D168" t="s">
@@ -41877,7 +41890,7 @@
       <c r="B169" t="s">
         <v>1369</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="13" t="s">
         <v>1370</v>
       </c>
       <c r="D169" t="s">
@@ -41937,7 +41950,7 @@
       <c r="B172" t="s">
         <v>1379</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="13" t="s">
         <v>1380</v>
       </c>
       <c r="D172" t="s">
@@ -41980,7 +41993,7 @@
       <c r="B174" t="s">
         <v>1388</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="13" t="s">
         <v>1389</v>
       </c>
       <c r="D174" t="s">
@@ -42023,7 +42036,7 @@
       <c r="B176" t="s">
         <v>1396</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="13" t="s">
         <v>1397</v>
       </c>
       <c r="D176" t="s">
@@ -42080,7 +42093,7 @@
       <c r="B179" t="s">
         <v>1405</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="13" t="s">
         <v>1406</v>
       </c>
       <c r="D179" t="s">
@@ -42103,7 +42116,7 @@
       <c r="B180" t="s">
         <v>1409</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="13" t="s">
         <v>1410</v>
       </c>
       <c r="D180" t="s">
@@ -42126,7 +42139,7 @@
       <c r="B181" t="s">
         <v>1413</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="13" t="s">
         <v>1414</v>
       </c>
       <c r="D181" t="s">
@@ -42149,7 +42162,7 @@
       <c r="B182" t="s">
         <v>1418</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="13" t="s">
         <v>1419</v>
       </c>
       <c r="D182" t="s">
@@ -42226,7 +42239,7 @@
       <c r="B186" t="s">
         <v>1432</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="13" t="s">
         <v>1433</v>
       </c>
       <c r="D186" t="s">
@@ -42303,7 +42316,7 @@
       <c r="B190" t="s">
         <v>1446</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="13" t="s">
         <v>1447</v>
       </c>
       <c r="D190" t="s">
@@ -42343,7 +42356,7 @@
       <c r="B192" t="s">
         <v>1453</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="13" t="s">
         <v>1454</v>
       </c>
       <c r="D192" t="s">
@@ -42366,7 +42379,7 @@
       <c r="B193" t="s">
         <v>1458</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="13" t="s">
         <v>1459</v>
       </c>
       <c r="D193" t="s">
@@ -42389,7 +42402,7 @@
       <c r="B194" t="s">
         <v>1463</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="13" t="s">
         <v>1464</v>
       </c>
       <c r="D194" t="s">
@@ -42412,7 +42425,7 @@
       <c r="B195" t="s">
         <v>1468</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="13" t="s">
         <v>1469</v>
       </c>
       <c r="D195" t="s">
@@ -42435,7 +42448,7 @@
       <c r="B196" t="s">
         <v>1473</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="13" t="s">
         <v>1474</v>
       </c>
       <c r="D196" t="s">
@@ -42458,7 +42471,7 @@
       <c r="B197" t="s">
         <v>1478</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="13" t="s">
         <v>1479</v>
       </c>
       <c r="D197" t="s">
@@ -42481,7 +42494,7 @@
       <c r="B198" t="s">
         <v>1483</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="13" t="s">
         <v>1484</v>
       </c>
       <c r="D198" t="s">
@@ -42504,7 +42517,7 @@
       <c r="B199" t="s">
         <v>1488</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="13" t="s">
         <v>1489</v>
       </c>
       <c r="D199" t="s">
@@ -42527,7 +42540,7 @@
       <c r="B200" t="s">
         <v>1492</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="13" t="s">
         <v>1493</v>
       </c>
       <c r="D200" t="s">
@@ -42567,7 +42580,7 @@
       <c r="B202" t="s">
         <v>1499</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="13" t="s">
         <v>1500</v>
       </c>
       <c r="D202" t="s">
@@ -42590,7 +42603,7 @@
       <c r="B203" t="s">
         <v>1504</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="13" t="s">
         <v>1505</v>
       </c>
       <c r="D203" t="s">
@@ -42613,7 +42626,7 @@
       <c r="B204" t="s">
         <v>1509</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="13" t="s">
         <v>1510</v>
       </c>
       <c r="D204" t="s">
@@ -42636,7 +42649,7 @@
       <c r="B205" t="s">
         <v>1514</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="13" t="s">
         <v>1515</v>
       </c>
       <c r="D205" t="s">
@@ -42676,7 +42689,7 @@
       <c r="B207" s="12" t="s">
         <v>1889</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="13" t="s">
         <v>1522</v>
       </c>
       <c r="D207" t="s">
@@ -42699,7 +42712,7 @@
       <c r="B208" t="s">
         <v>1525</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="13" t="s">
         <v>1526</v>
       </c>
       <c r="D208" t="s">
@@ -42722,7 +42735,7 @@
       <c r="B209" t="s">
         <v>1529</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="13" t="s">
         <v>1530</v>
       </c>
       <c r="D209" t="s">
@@ -42762,7 +42775,7 @@
       <c r="B211" t="s">
         <v>1536</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="13" t="s">
         <v>1537</v>
       </c>
       <c r="D211" t="s">
@@ -42802,7 +42815,7 @@
       <c r="B213" t="s">
         <v>1544</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="13" t="s">
         <v>1545</v>
       </c>
       <c r="D213" t="s">
@@ -42825,7 +42838,7 @@
       <c r="B214" t="s">
         <v>1548</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="13" t="s">
         <v>1549</v>
       </c>
       <c r="D214" t="s">
@@ -42848,7 +42861,7 @@
       <c r="B215" s="12" t="s">
         <v>1553</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="13" t="s">
         <v>1554</v>
       </c>
       <c r="D215" t="s">
@@ -42871,7 +42884,7 @@
       <c r="B216" t="s">
         <v>1558</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="13" t="s">
         <v>1559</v>
       </c>
       <c r="D216" t="s">
@@ -42894,7 +42907,7 @@
       <c r="B217" t="s">
         <v>1562</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="13" t="s">
         <v>1563</v>
       </c>
       <c r="D217" t="s">
@@ -42917,7 +42930,7 @@
       <c r="B218" t="s">
         <v>1567</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="13" t="s">
         <v>1568</v>
       </c>
       <c r="D218" t="s">
@@ -42940,7 +42953,7 @@
       <c r="B219" t="s">
         <v>1572</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="13" t="s">
         <v>1573</v>
       </c>
       <c r="D219" t="s">
@@ -42963,7 +42976,7 @@
       <c r="B220" t="s">
         <v>1577</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="13" t="s">
         <v>1578</v>
       </c>
       <c r="D220" t="s">
@@ -42986,7 +42999,7 @@
       <c r="B221" t="s">
         <v>1581</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="13" t="s">
         <v>1582</v>
       </c>
       <c r="D221" t="s">
@@ -43009,7 +43022,7 @@
       <c r="B222" t="s">
         <v>1585</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="13" t="s">
         <v>1586</v>
       </c>
       <c r="D222" t="s">
@@ -43032,7 +43045,7 @@
       <c r="B223" t="s">
         <v>1589</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="13" t="s">
         <v>1590</v>
       </c>
       <c r="D223" t="s">
@@ -43055,7 +43068,7 @@
       <c r="B224" t="s">
         <v>1594</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="13" t="s">
         <v>1595</v>
       </c>
       <c r="D224" t="s">
@@ -43078,7 +43091,7 @@
       <c r="B225" t="s">
         <v>1599</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="13" t="s">
         <v>1600</v>
       </c>
       <c r="D225" t="s">
@@ -43101,7 +43114,7 @@
       <c r="B226" t="s">
         <v>1604</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="13" t="s">
         <v>1605</v>
       </c>
       <c r="D226" t="s">
@@ -43124,7 +43137,7 @@
       <c r="B227" t="s">
         <v>1609</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="13" t="s">
         <v>1610</v>
       </c>
       <c r="D227" t="s">
@@ -43167,7 +43180,7 @@
       <c r="B229" t="s">
         <v>1617</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="13" t="s">
         <v>1618</v>
       </c>
       <c r="D229" t="s">
@@ -43190,7 +43203,7 @@
       <c r="B230" t="s">
         <v>1622</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="13" t="s">
         <v>1623</v>
       </c>
       <c r="D230" t="s">
@@ -43213,7 +43226,7 @@
       <c r="B231" t="s">
         <v>1627</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="13" t="s">
         <v>1628</v>
       </c>
       <c r="D231" t="s">
@@ -43236,7 +43249,7 @@
       <c r="B232" t="s">
         <v>1631</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="13" t="s">
         <v>1632</v>
       </c>
       <c r="D232" t="s">
@@ -43259,7 +43272,7 @@
       <c r="B233" t="s">
         <v>1635</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="13" t="s">
         <v>1636</v>
       </c>
       <c r="D233" t="s">
@@ -43282,7 +43295,7 @@
       <c r="B234" t="s">
         <v>1640</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="13" t="s">
         <v>1641</v>
       </c>
       <c r="D234" t="s">
@@ -43305,7 +43318,7 @@
       <c r="B235" t="s">
         <v>1645</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="13" t="s">
         <v>1646</v>
       </c>
       <c r="D235" t="s">
@@ -43328,7 +43341,7 @@
       <c r="B236" t="s">
         <v>1650</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="13" t="s">
         <v>1651</v>
       </c>
       <c r="D236" t="s">
@@ -43351,7 +43364,7 @@
       <c r="B237" t="s">
         <v>1655</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="13" t="s">
         <v>1656</v>
       </c>
       <c r="D237" t="s">
@@ -43374,7 +43387,7 @@
       <c r="B238" t="s">
         <v>1659</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="13" t="s">
         <v>1660</v>
       </c>
       <c r="D238" t="s">
@@ -43397,7 +43410,7 @@
       <c r="B239" t="s">
         <v>1663</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="13" t="s">
         <v>1664</v>
       </c>
       <c r="D239" t="s">
@@ -43420,7 +43433,7 @@
       <c r="B240" t="s">
         <v>1668</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="13" t="s">
         <v>1669</v>
       </c>
       <c r="D240" t="s">
@@ -43443,7 +43456,7 @@
       <c r="B241" t="s">
         <v>1673</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="13" t="s">
         <v>1674</v>
       </c>
       <c r="D241" t="s">
@@ -43466,7 +43479,7 @@
       <c r="B242" t="s">
         <v>1678</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="13" t="s">
         <v>1679</v>
       </c>
       <c r="D242" t="s">
@@ -43489,7 +43502,7 @@
       <c r="B243" t="s">
         <v>1683</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="13" t="s">
         <v>1684</v>
       </c>
       <c r="D243" t="s">
@@ -43512,7 +43525,7 @@
       <c r="B244" t="s">
         <v>1688</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="13" t="s">
         <v>1689</v>
       </c>
       <c r="D244" t="s">
@@ -43535,7 +43548,7 @@
       <c r="B245" t="s">
         <v>1693</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="13" t="s">
         <v>1694</v>
       </c>
       <c r="D245" t="s">
@@ -43558,7 +43571,7 @@
       <c r="B246" t="s">
         <v>1697</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="13" t="s">
         <v>1698</v>
       </c>
       <c r="D246" t="s">
@@ -43618,7 +43631,7 @@
       <c r="B249" t="s">
         <v>1709</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="13" t="s">
         <v>1710</v>
       </c>
       <c r="D249" t="s">
@@ -43641,7 +43654,7 @@
       <c r="B250" t="s">
         <v>1714</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="13" t="s">
         <v>1715</v>
       </c>
       <c r="D250" t="s">
@@ -43664,7 +43677,7 @@
       <c r="B251" t="s">
         <v>1719</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="13" t="s">
         <v>1720</v>
       </c>
       <c r="D251" t="s">
@@ -43687,7 +43700,7 @@
       <c r="B252" t="s">
         <v>1723</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="13" t="s">
         <v>1724</v>
       </c>
       <c r="D252" t="s">
@@ -43710,7 +43723,7 @@
       <c r="B253" t="s">
         <v>1728</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="13" t="s">
         <v>1729</v>
       </c>
       <c r="D253" t="s">
@@ -43733,7 +43746,7 @@
       <c r="B254" t="s">
         <v>1733</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="13" t="s">
         <v>1734</v>
       </c>
       <c r="D254" t="s">
@@ -43756,7 +43769,7 @@
       <c r="B255" t="s">
         <v>1738</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="13" t="s">
         <v>1739</v>
       </c>
       <c r="D255" t="s">
@@ -43776,9 +43789,6 @@
       <c r="A256" t="s">
         <v>1742</v>
       </c>
-      <c r="C256">
-        <v>0</v>
-      </c>
       <c r="D256" t="s">
         <v>1743</v>
       </c>
@@ -43799,7 +43809,7 @@
       <c r="B257" t="s">
         <v>1746</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="13" t="s">
         <v>1747</v>
       </c>
       <c r="D257" t="s">
@@ -43822,7 +43832,7 @@
       <c r="B258" t="s">
         <v>1751</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="13" t="s">
         <v>1752</v>
       </c>
       <c r="D258" t="s">
@@ -43845,7 +43855,7 @@
       <c r="B259" s="12" t="s">
         <v>1756</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="13" t="s">
         <v>1757</v>
       </c>
       <c r="D259" t="s">
@@ -43868,7 +43878,7 @@
       <c r="B260" t="s">
         <v>1760</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="13" t="s">
         <v>1761</v>
       </c>
       <c r="D260" t="s">
@@ -43911,7 +43921,7 @@
       <c r="B262" t="s">
         <v>1769</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="13" t="s">
         <v>1770</v>
       </c>
       <c r="D262" t="s">
@@ -43954,7 +43964,7 @@
       <c r="B264" t="s">
         <v>1778</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="13" t="s">
         <v>1779</v>
       </c>
       <c r="D264" t="s">
@@ -43977,7 +43987,7 @@
       <c r="B265" s="12" t="s">
         <v>1783</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="13" t="s">
         <v>1784</v>
       </c>
       <c r="D265" t="s">
@@ -44000,7 +44010,7 @@
       <c r="B266" t="s">
         <v>1788</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="13" t="s">
         <v>1789</v>
       </c>
       <c r="D266" t="s">
@@ -44023,7 +44033,7 @@
       <c r="B267" t="s">
         <v>1793</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="13" t="s">
         <v>1794</v>
       </c>
       <c r="D267" t="s">
@@ -44063,7 +44073,7 @@
       <c r="B269" t="s">
         <v>1800</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="13" t="s">
         <v>1801</v>
       </c>
       <c r="D269" t="s">
@@ -44086,7 +44096,7 @@
       <c r="B270" t="s">
         <v>1804</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="13" t="s">
         <v>1805</v>
       </c>
       <c r="D270" t="s">
@@ -44109,9 +44119,6 @@
       <c r="B271" t="s">
         <v>1809</v>
       </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
       <c r="D271" t="s">
         <v>1810</v>
       </c>
@@ -44132,7 +44139,7 @@
       <c r="B272" t="s">
         <v>1813</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="13" t="s">
         <v>1814</v>
       </c>
       <c r="D272" t="s">
@@ -44155,7 +44162,7 @@
       <c r="B273" t="s">
         <v>1818</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="13" t="s">
         <v>1819</v>
       </c>
       <c r="D273" t="s">
@@ -44178,7 +44185,7 @@
       <c r="B274" t="s">
         <v>1822</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="13" t="s">
         <v>1823</v>
       </c>
       <c r="D274" t="s">
@@ -44201,7 +44208,7 @@
       <c r="B275" t="s">
         <v>1826</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="13" t="s">
         <v>1827</v>
       </c>
       <c r="D275" t="s">
@@ -44224,7 +44231,7 @@
       <c r="B276" t="s">
         <v>1830</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="13" t="s">
         <v>1831</v>
       </c>
       <c r="D276" t="s">
@@ -44247,7 +44254,7 @@
       <c r="B277" t="s">
         <v>1834</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="13" t="s">
         <v>1835</v>
       </c>
       <c r="D277" t="s">
@@ -44287,7 +44294,7 @@
       <c r="B279" t="s">
         <v>1842</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="13" t="s">
         <v>1843</v>
       </c>
       <c r="D279" t="s">
@@ -44310,7 +44317,7 @@
       <c r="B280" t="s">
         <v>1846</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="13" t="s">
         <v>1847</v>
       </c>
       <c r="D280" t="s">
@@ -44333,7 +44340,7 @@
       <c r="B281" s="12" t="s">
         <v>1851</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="13" t="s">
         <v>1852</v>
       </c>
       <c r="D281" t="s">
@@ -44356,7 +44363,7 @@
       <c r="B282" t="s">
         <v>1856</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="13" t="s">
         <v>1857</v>
       </c>
       <c r="D282" t="s">
@@ -44379,7 +44386,7 @@
       <c r="B283" t="s">
         <v>1861</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="13" t="s">
         <v>1862</v>
       </c>
       <c r="D283" t="s">
@@ -44402,7 +44409,7 @@
       <c r="B284" t="s">
         <v>1866</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="13" t="s">
         <v>1867</v>
       </c>
       <c r="D284" t="s">
@@ -44425,7 +44432,7 @@
       <c r="B285" s="12" t="s">
         <v>1871</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="13" t="s">
         <v>1872</v>
       </c>
       <c r="D285" t="s">
@@ -44465,7 +44472,7 @@
       <c r="B287" t="s">
         <v>1878</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="13" t="s">
         <v>1879</v>
       </c>
       <c r="D287" t="s">
@@ -44478,6 +44485,29 @@
         <v>653</v>
       </c>
       <c r="G287" s="13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C288" s="25" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F288" t="s">
+        <v>647</v>
+      </c>
+      <c r="G288" t="s">
         <v>636</v>
       </c>
     </row>
@@ -44516,8 +44546,10 @@
     <hyperlink ref="B265" r:id="rId31"/>
     <hyperlink ref="B7" r:id="rId32"/>
     <hyperlink ref="B207" r:id="rId33"/>
+    <hyperlink ref="B288" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId35"/>
 </worksheet>
 </file>
 
